--- a/raw_data/20200818_saline/20200818_Sensor1_Test_35.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_35.xlsx
@@ -1,3410 +1,3826 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85947150-A352-44DD-9930-5869F34EE024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>30787.134050</v>
+        <v>30787.134050000001</v>
       </c>
       <c r="B2" s="1">
-        <v>8.551982</v>
+        <v>8.5519820000000006</v>
       </c>
       <c r="C2" s="1">
-        <v>901.482000</v>
+        <v>901.48199999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>-203.251000</v>
+        <v>-203.251</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>30797.575363</v>
       </c>
       <c r="G2" s="1">
-        <v>8.554882</v>
+        <v>8.5548819999999992</v>
       </c>
       <c r="H2" s="1">
-        <v>919.535000</v>
+        <v>919.53499999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-172.178000</v>
+        <v>-172.178</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>30807.702647</v>
+        <v>30807.702646999998</v>
       </c>
       <c r="L2" s="1">
-        <v>8.557695</v>
+        <v>8.5576950000000007</v>
       </c>
       <c r="M2" s="1">
-        <v>942.856000</v>
+        <v>942.85599999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.753000</v>
+        <v>-121.753</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>30818.220312</v>
+        <v>30818.220312000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.560617</v>
+        <v>8.5606170000000006</v>
       </c>
       <c r="R2" s="1">
-        <v>949.642000</v>
+        <v>949.64200000000005</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.919000</v>
+        <v>-104.919</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>30829.110970</v>
+        <v>30829.110970000002</v>
       </c>
       <c r="V2" s="1">
-        <v>8.563642</v>
+        <v>8.5636419999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>956.283000</v>
+        <v>956.28300000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.535800</v>
+        <v>-89.535799999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>30839.565189</v>
+        <v>30839.565189000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.566546</v>
+        <v>8.5665460000000007</v>
       </c>
       <c r="AB2" s="1">
-        <v>963.417000</v>
+        <v>963.41700000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.339300</v>
+        <v>-77.339299999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>30849.899790</v>
+        <v>30849.899789999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.569417</v>
+        <v>8.5694169999999996</v>
       </c>
       <c r="AG2" s="1">
-        <v>968.086000</v>
+        <v>968.08600000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.053400</v>
+        <v>-75.053399999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>30860.008293</v>
+        <v>30860.008292999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.572225</v>
+        <v>8.5722249999999995</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.246000</v>
+        <v>975.24599999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.596400</v>
+        <v>-79.596400000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>30870.269506</v>
+        <v>30870.269506000001</v>
       </c>
       <c r="AP2" s="1">
         <v>8.575075</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.258000</v>
+        <v>983.25800000000004</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.981100</v>
+        <v>-90.981099999999998</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>30880.529735</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.577925</v>
+        <v>8.5779250000000005</v>
       </c>
       <c r="AV2" s="1">
-        <v>993.024000</v>
+        <v>993.024</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.536000</v>
+        <v>-108.536</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>30892.007195</v>
+        <v>30892.007194999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.581113</v>
+        <v>8.5811130000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1001.210000</v>
+        <v>1001.21</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.055000</v>
+        <v>-124.05500000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>30902.589813</v>
+        <v>30902.589812999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.584053</v>
+        <v>8.5840530000000008</v>
       </c>
       <c r="BF2" s="1">
-        <v>1039.470000</v>
+        <v>1039.47</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.947000</v>
+        <v>-195.947</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>30914.044906</v>
+        <v>30914.044905999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.587235</v>
+        <v>8.5872349999999997</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.570000</v>
+        <v>1105.57</v>
       </c>
       <c r="BL2" s="1">
-        <v>-312.977000</v>
+        <v>-312.97699999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>30925.175626</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.590327</v>
+        <v>8.5903270000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1213.410000</v>
+        <v>1213.4100000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-497.758000</v>
+        <v>-497.75799999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>30935.532589</v>
+        <v>30935.532588999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.593203</v>
+        <v>8.5932030000000008</v>
       </c>
       <c r="BU2" s="1">
-        <v>1334.710000</v>
+        <v>1334.71</v>
       </c>
       <c r="BV2" s="1">
-        <v>-700.717000</v>
+        <v>-700.71699999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>30946.226335</v>
+        <v>30946.226334999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.596174</v>
+        <v>8.5961739999999995</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1471.400000</v>
+        <v>1471.4</v>
       </c>
       <c r="CA2" s="1">
-        <v>-916.843000</v>
+        <v>-916.84299999999996</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>30957.436913</v>
+        <v>30957.436913000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.599288</v>
+        <v>8.5992879999999996</v>
       </c>
       <c r="CE2" s="1">
-        <v>1828.610000</v>
+        <v>1828.61</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1430.040000</v>
+        <v>-1430.04</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>30787.561106</v>
+        <v>30787.561106000001</v>
       </c>
       <c r="B3" s="1">
-        <v>8.552100</v>
+        <v>8.5520999999999994</v>
       </c>
       <c r="C3" s="1">
-        <v>901.245000</v>
+        <v>901.245</v>
       </c>
       <c r="D3" s="1">
-        <v>-203.198000</v>
+        <v>-203.19800000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>30797.945348</v>
+        <v>30797.945348000001</v>
       </c>
       <c r="G3" s="1">
-        <v>8.554985</v>
+        <v>8.5549850000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>919.636000</v>
+        <v>919.63599999999997</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.753000</v>
+        <v>-171.75299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>30808.390629</v>
+        <v>30808.390629000001</v>
       </c>
       <c r="L3" s="1">
-        <v>8.557886</v>
+        <v>8.5578859999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>942.877000</v>
+        <v>942.87699999999995</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.776000</v>
+        <v>-121.776</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>30818.924135</v>
+        <v>30818.924135000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.560812</v>
+        <v>8.5608120000000003</v>
       </c>
       <c r="R3" s="1">
-        <v>949.690000</v>
+        <v>949.69</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.927000</v>
+        <v>-104.92700000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>30829.512729</v>
+        <v>30829.512728999998</v>
       </c>
       <c r="V3" s="1">
-        <v>8.563754</v>
+        <v>8.5637539999999994</v>
       </c>
       <c r="W3" s="1">
-        <v>956.272000</v>
+        <v>956.27200000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.580600</v>
+        <v>-89.580600000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>30839.986251</v>
+        <v>30839.986250999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.566663</v>
+        <v>8.5666630000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.323000</v>
+        <v>963.32299999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.399400</v>
+        <v>-77.3994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>30850.255918</v>
+        <v>30850.255917999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.569516</v>
+        <v>8.5695160000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>968.063000</v>
+        <v>968.06299999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.020600</v>
+        <v>-75.020600000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>30860.388192</v>
+        <v>30860.388191999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.572330</v>
+        <v>8.5723299999999991</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.252000</v>
+        <v>975.25199999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.567700</v>
+        <v>-79.567700000000002</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>30870.659347</v>
+        <v>30870.659347000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.575183</v>
+        <v>8.5751830000000009</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.260000</v>
+        <v>983.26</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.963400</v>
+        <v>-90.963399999999993</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>30880.956789</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.578044</v>
+        <v>8.5780440000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>993.028000</v>
+        <v>993.02800000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.513000</v>
+        <v>-108.51300000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>30892.116280</v>
+        <v>30892.116279999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.581143</v>
+        <v>8.5811430000000009</v>
       </c>
       <c r="BA3" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.072000</v>
+        <v>-124.072</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>30903.023335</v>
+        <v>30903.023335000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.584173</v>
+        <v>8.5841729999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1039.450000</v>
+        <v>1039.45</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.940000</v>
+        <v>-195.94</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>30914.425369</v>
+        <v>30914.425369000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.587340</v>
+        <v>8.5873399999999993</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.580000</v>
+        <v>1105.58</v>
       </c>
       <c r="BL3" s="1">
-        <v>-312.945000</v>
+        <v>-312.94499999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>30925.614586</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.590448</v>
+        <v>8.5904480000000003</v>
       </c>
       <c r="BP3" s="1">
-        <v>1213.400000</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-497.771000</v>
+        <v>-497.77100000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>30935.964636</v>
+        <v>30935.964636000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.593324</v>
+        <v>8.5933240000000009</v>
       </c>
       <c r="BU3" s="1">
-        <v>1334.810000</v>
+        <v>1334.81</v>
       </c>
       <c r="BV3" s="1">
-        <v>-700.657000</v>
+        <v>-700.65700000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>30946.694094</v>
+        <v>30946.694093999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.596304</v>
+        <v>8.5963039999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="CA3" s="1">
-        <v>-916.858000</v>
+        <v>-916.85799999999995</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>30957.748399</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.599375</v>
+        <v>8.5993750000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1828.610000</v>
+        <v>1828.61</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1430.380000</v>
+        <v>-1430.38</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>30787.902880</v>
+        <v>30787.902880000001</v>
       </c>
       <c r="B4" s="1">
-        <v>8.552195</v>
+        <v>8.5521949999999993</v>
       </c>
       <c r="C4" s="1">
-        <v>901.453000</v>
+        <v>901.45299999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-203.352000</v>
+        <v>-203.352</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>30798.592626</v>
+        <v>30798.592626000001</v>
       </c>
       <c r="G4" s="1">
-        <v>8.555165</v>
+        <v>8.5551650000000006</v>
       </c>
       <c r="H4" s="1">
-        <v>919.706000</v>
+        <v>919.70600000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.992000</v>
+        <v>-171.99199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>30808.774036</v>
+        <v>30808.774035999999</v>
       </c>
       <c r="L4" s="1">
-        <v>8.557993</v>
+        <v>8.5579929999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>942.919000</v>
+        <v>942.91899999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.628000</v>
+        <v>-121.628</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>30819.303467</v>
+        <v>30819.303467000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.560918</v>
+        <v>8.5609179999999991</v>
       </c>
       <c r="R4" s="1">
-        <v>949.735000</v>
+        <v>949.73500000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.934000</v>
+        <v>-104.934</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>30829.852616</v>
       </c>
       <c r="V4" s="1">
-        <v>8.563848</v>
+        <v>8.5638480000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>956.305000</v>
+        <v>956.30499999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.557300</v>
+        <v>-89.557299999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>30840.331007</v>
+        <v>30840.331007000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.566759</v>
+        <v>8.5667589999999993</v>
       </c>
       <c r="AB4" s="1">
-        <v>963.438000</v>
+        <v>963.43799999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.415100</v>
+        <v>-77.415099999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>30850.598691</v>
+        <v>30850.598690999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.569611</v>
+        <v>8.5696110000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>968.100000</v>
+        <v>968.1</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.043700</v>
+        <v>-75.043700000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>30860.810326</v>
+        <v>30860.810325999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.572447</v>
+        <v>8.5724470000000004</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.248000</v>
+        <v>975.24800000000005</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.569200</v>
+        <v>-79.569199999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>30871.095330</v>
+        <v>30871.09533</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.575304</v>
+        <v>8.5753039999999991</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.280000</v>
+        <v>983.28</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.977900</v>
+        <v>-90.977900000000005</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>30881.287622</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.578135</v>
+        <v>8.5781349999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>993.038000</v>
+        <v>993.03800000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.528000</v>
+        <v>-108.52800000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>30892.459510</v>
+        <v>30892.459510000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.581239</v>
+        <v>8.5812390000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1001.210000</v>
+        <v>1001.21</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.069000</v>
+        <v>-124.069</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>30903.387897</v>
+        <v>30903.387897000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.584274</v>
+        <v>8.5842740000000006</v>
       </c>
       <c r="BF4" s="1">
-        <v>1039.450000</v>
+        <v>1039.45</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.953000</v>
+        <v>-195.953</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>30914.798825</v>
+        <v>30914.798825000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>8.587444</v>
+        <v>8.5874439999999996</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.570000</v>
+        <v>1105.57</v>
       </c>
       <c r="BL4" s="1">
-        <v>-312.961000</v>
+        <v>-312.96100000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>30926.039193</v>
+        <v>30926.039193000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.590566</v>
+        <v>8.5905660000000008</v>
       </c>
       <c r="BP4" s="1">
-        <v>1213.400000</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-497.746000</v>
+        <v>-497.74599999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>30936.383228</v>
+        <v>30936.383227999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.593440</v>
+        <v>8.5934399999999993</v>
       </c>
       <c r="BU4" s="1">
-        <v>1334.770000</v>
+        <v>1334.77</v>
       </c>
       <c r="BV4" s="1">
-        <v>-700.530000</v>
+        <v>-700.53</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>30947.126079</v>
+        <v>30947.126079000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.596424</v>
+        <v>8.5964240000000007</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1471.280000</v>
+        <v>1471.28</v>
       </c>
       <c r="CA4" s="1">
-        <v>-916.881000</v>
+        <v>-916.88099999999997</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>30958.270223</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.599520</v>
+        <v>8.5995200000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1828.970000</v>
+        <v>1828.97</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1431.450000</v>
+        <v>-1431.45</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>30788.560049</v>
       </c>
       <c r="B5" s="1">
-        <v>8.552378</v>
+        <v>8.5523779999999991</v>
       </c>
       <c r="C5" s="1">
-        <v>901.280000</v>
+        <v>901.28</v>
       </c>
       <c r="D5" s="1">
-        <v>-203.266000</v>
+        <v>-203.26599999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>30798.977521</v>
+        <v>30798.977521000001</v>
       </c>
       <c r="G5" s="1">
-        <v>8.555272</v>
+        <v>8.5552720000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>919.539000</v>
+        <v>919.53899999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.751000</v>
+        <v>-171.751</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>30809.122228</v>
       </c>
       <c r="L5" s="1">
-        <v>8.558090</v>
+        <v>8.55809</v>
       </c>
       <c r="M5" s="1">
-        <v>942.857000</v>
+        <v>942.85699999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.875000</v>
+        <v>-121.875</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>30819.650310</v>
+        <v>30819.650310000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.561014</v>
+        <v>8.5610140000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>949.746000</v>
+        <v>949.74599999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.845000</v>
+        <v>-104.845</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>30830.199722</v>
+        <v>30830.199722000001</v>
       </c>
       <c r="V5" s="1">
-        <v>8.563944</v>
+        <v>8.5639439999999993</v>
       </c>
       <c r="W5" s="1">
-        <v>956.290000</v>
+        <v>956.29</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.527100</v>
+        <v>-89.527100000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>30840.754555</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.566876</v>
+        <v>8.5668760000000006</v>
       </c>
       <c r="AB5" s="1">
-        <v>963.423000</v>
+        <v>963.423</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.480300</v>
+        <v>-77.4803</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>30851.018304</v>
+        <v>30851.018304000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.569727</v>
+        <v>8.5697270000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>968.116000</v>
+        <v>968.11599999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.077800</v>
+        <v>-75.077799999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>30861.110367</v>
+        <v>30861.110367000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.572531</v>
+        <v>8.5725309999999997</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.255000</v>
+        <v>975.255</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.490300</v>
+        <v>-79.490300000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>30871.379539</v>
+        <v>30871.379539000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.575383</v>
+        <v>8.5753830000000004</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.270000</v>
+        <v>983.27</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.991100</v>
+        <v>-90.991100000000003</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>30881.649702</v>
+        <v>30881.649701999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.578236</v>
+        <v>8.5782360000000004</v>
       </c>
       <c r="AV5" s="1">
-        <v>993.027000</v>
+        <v>993.02700000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.536000</v>
+        <v>-108.536</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>30892.819109</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.581339</v>
+        <v>8.5813389999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1001.220000</v>
+        <v>1001.22</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.057000</v>
+        <v>-124.057</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>30903.749448</v>
+        <v>30903.749447999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.584375</v>
+        <v>8.5843749999999996</v>
       </c>
       <c r="BF5" s="1">
-        <v>1039.450000</v>
+        <v>1039.45</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.931000</v>
+        <v>-195.93100000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>30915.548777</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.587652</v>
+        <v>8.5876520000000003</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.590000</v>
+        <v>1105.5899999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-312.998000</v>
+        <v>-312.99799999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>30926.429018</v>
+        <v>30926.429017999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.590675</v>
+        <v>8.5906749999999992</v>
       </c>
       <c r="BP5" s="1">
-        <v>1213.410000</v>
+        <v>1213.4100000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-497.745000</v>
+        <v>-497.745</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>30936.815739</v>
+        <v>30936.815739000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.593560</v>
+        <v>8.5935600000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1334.830000</v>
+        <v>1334.83</v>
       </c>
       <c r="BV5" s="1">
-        <v>-700.415000</v>
+        <v>-700.41499999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>30947.548701</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.596541</v>
+        <v>8.5965410000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1471.340000</v>
+        <v>1471.34</v>
       </c>
       <c r="CA5" s="1">
-        <v>-916.988000</v>
+        <v>-916.98800000000006</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>30959.085158</v>
+        <v>30959.085158000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.599746</v>
+        <v>8.5997459999999997</v>
       </c>
       <c r="CE5" s="1">
-        <v>1830.290000</v>
+        <v>1830.29</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1430.610000</v>
+        <v>-1430.61</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>30788.926622</v>
+        <v>30788.926621999999</v>
       </c>
       <c r="B6" s="1">
-        <v>8.552480</v>
+        <v>8.5524799999999992</v>
       </c>
       <c r="C6" s="1">
-        <v>901.315000</v>
+        <v>901.31500000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-203.271000</v>
+        <v>-203.27099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>30799.326211</v>
       </c>
       <c r="G6" s="1">
-        <v>8.555368</v>
+        <v>8.5553679999999996</v>
       </c>
       <c r="H6" s="1">
-        <v>919.523000</v>
+        <v>919.52300000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.835000</v>
+        <v>-171.83500000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>30809.465956</v>
       </c>
       <c r="L6" s="1">
-        <v>8.558185</v>
+        <v>8.5581849999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>942.805000</v>
+        <v>942.80499999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.804000</v>
+        <v>-121.804</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>30819.998997</v>
+        <v>30819.998996999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.561111</v>
+        <v>8.5611110000000004</v>
       </c>
       <c r="R6" s="1">
-        <v>949.678000</v>
+        <v>949.678</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.823000</v>
+        <v>-104.82299999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>30830.611866</v>
+        <v>30830.611865999999</v>
       </c>
       <c r="V6" s="1">
-        <v>8.564059</v>
+        <v>8.5640590000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>956.296000</v>
+        <v>956.29600000000005</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.627200</v>
+        <v>-89.627200000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>30841.035001</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.566954</v>
+        <v>8.5669540000000008</v>
       </c>
       <c r="AB6" s="1">
-        <v>963.419000</v>
+        <v>963.41899999999998</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.356700</v>
+        <v>-77.356700000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>30851.295565</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.569804</v>
+        <v>8.5698039999999995</v>
       </c>
       <c r="AG6" s="1">
-        <v>968.084000</v>
+        <v>968.08399999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.067700</v>
+        <v>-75.067700000000002</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>30861.458560</v>
+        <v>30861.458559999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.572627</v>
+        <v>8.5726270000000007</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.226000</v>
+        <v>975.226</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.539400</v>
+        <v>-79.539400000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>30871.739633</v>
+        <v>30871.739633000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.575483</v>
+        <v>8.5754830000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.272000</v>
+        <v>983.27200000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.930800</v>
+        <v>-90.930800000000005</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>30882.009796</v>
+        <v>30882.009795999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.578336</v>
+        <v>8.5783360000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>993.027000</v>
+        <v>993.02700000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.528000</v>
+        <v>-108.52800000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>30893.536820</v>
+        <v>30893.536820000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.581538</v>
+        <v>8.5815380000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1001.240000</v>
+        <v>1001.24</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.066000</v>
+        <v>-124.066</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>30904.470630</v>
+        <v>30904.47063</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.584575</v>
+        <v>8.5845749999999992</v>
       </c>
       <c r="BF6" s="1">
-        <v>1039.460000</v>
+        <v>1039.46</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.939000</v>
+        <v>-195.93899999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>30915.925275</v>
+        <v>30915.925275000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.587757</v>
+        <v>8.5877569999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.570000</v>
+        <v>1105.57</v>
       </c>
       <c r="BL6" s="1">
-        <v>-312.981000</v>
+        <v>-312.98099999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>30926.852139</v>
+        <v>30926.852138999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.590792</v>
+        <v>8.5907920000000004</v>
       </c>
       <c r="BP6" s="1">
-        <v>1213.370000</v>
+        <v>1213.3699999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-497.758000</v>
+        <v>-497.75799999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>30937.242942</v>
+        <v>30937.242942000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.593679</v>
+        <v>8.5936789999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1334.970000</v>
+        <v>1334.97</v>
       </c>
       <c r="BV6" s="1">
-        <v>-700.326000</v>
+        <v>-700.32600000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>30948.278285</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.596744</v>
+        <v>8.5967439999999993</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1471.400000</v>
+        <v>1471.4</v>
       </c>
       <c r="CA6" s="1">
-        <v>-916.929000</v>
+        <v>-916.92899999999997</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>30959.304874</v>
+        <v>30959.304874000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.599807</v>
+        <v>8.5998070000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1829.350000</v>
+        <v>1829.35</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1429.860000</v>
+        <v>-1429.86</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>30789.270319</v>
+        <v>30789.270318999999</v>
       </c>
       <c r="B7" s="1">
-        <v>8.552575</v>
+        <v>8.5525749999999992</v>
       </c>
       <c r="C7" s="1">
-        <v>901.490000</v>
+        <v>901.49</v>
       </c>
       <c r="D7" s="1">
-        <v>-203.104000</v>
+        <v>-203.10400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>30799.668483</v>
+        <v>30799.668483000001</v>
       </c>
       <c r="G7" s="1">
-        <v>8.555463</v>
+        <v>8.5554629999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>919.324000</v>
+        <v>919.32399999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.779000</v>
+        <v>-171.779</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>30809.880579</v>
+        <v>30809.880579000001</v>
       </c>
       <c r="L7" s="1">
-        <v>8.558300</v>
+        <v>8.5582999999999991</v>
       </c>
       <c r="M7" s="1">
-        <v>942.933000</v>
+        <v>942.93299999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.697000</v>
+        <v>-121.697</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>30820.421062</v>
+        <v>30820.421062000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.561228</v>
+        <v>8.5612279999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>949.706000</v>
+        <v>949.70600000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.811000</v>
+        <v>-104.81100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>30830.889624</v>
+        <v>30830.889623999999</v>
       </c>
       <c r="V7" s="1">
-        <v>8.564136</v>
+        <v>8.5641359999999995</v>
       </c>
       <c r="W7" s="1">
-        <v>956.246000</v>
+        <v>956.24599999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.550700</v>
+        <v>-89.550700000000006</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>30841.382985</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.567051</v>
+        <v>8.5670509999999993</v>
       </c>
       <c r="AB7" s="1">
-        <v>963.409000</v>
+        <v>963.40899999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.359700</v>
+        <v>-77.359700000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>30851.639757</v>
+        <v>30851.639757000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.569900</v>
+        <v>8.5699000000000005</v>
       </c>
       <c r="AG7" s="1">
-        <v>968.098000</v>
+        <v>968.09799999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.066900</v>
+        <v>-75.066900000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>30861.804302</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.572723</v>
+        <v>8.5727229999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.243000</v>
+        <v>975.24300000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.547700</v>
+        <v>-79.547700000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>30872.110145</v>
+        <v>30872.110144999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.575586</v>
+        <v>8.5755859999999995</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.264000</v>
+        <v>983.26400000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.959000</v>
+        <v>-90.959000000000003</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>30882.742387</v>
+        <v>30882.742386999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.578540</v>
+        <v>8.5785400000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>993.008000</v>
+        <v>993.00800000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.526000</v>
+        <v>-108.526</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>30893.898404</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.581638</v>
+        <v>8.5816379999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1001.210000</v>
+        <v>1001.21</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.060000</v>
+        <v>-124.06</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>30904.832248</v>
+        <v>30904.832247999999</v>
       </c>
       <c r="BE7" s="1">
         <v>8.584676</v>
       </c>
       <c r="BF7" s="1">
-        <v>1039.450000</v>
+        <v>1039.45</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.944000</v>
+        <v>-195.94399999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>30916.302694</v>
+        <v>30916.302694000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.587862</v>
+        <v>8.5878619999999994</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.530000</v>
+        <v>1105.53</v>
       </c>
       <c r="BL7" s="1">
-        <v>-312.965000</v>
+        <v>-312.96499999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>30927.562376</v>
+        <v>30927.562376000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.590990</v>
+        <v>8.5909899999999997</v>
       </c>
       <c r="BP7" s="1">
-        <v>1213.390000</v>
+        <v>1213.3900000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-497.759000</v>
+        <v>-497.75900000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>30937.967485</v>
+        <v>30937.967485000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>8.593880</v>
+        <v>8.5938800000000004</v>
       </c>
       <c r="BU7" s="1">
-        <v>1335.040000</v>
+        <v>1335.04</v>
       </c>
       <c r="BV7" s="1">
-        <v>-700.318000</v>
+        <v>-700.31799999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>30948.396828</v>
+        <v>30948.396828000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.596777</v>
+        <v>8.5967769999999994</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1471.340000</v>
+        <v>1471.34</v>
       </c>
       <c r="CA7" s="1">
-        <v>-916.891000</v>
+        <v>-916.89099999999996</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>30959.821213</v>
+        <v>30959.821212999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.599950</v>
+        <v>8.5999499999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1829.990000</v>
+        <v>1829.99</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1429.770000</v>
+        <v>-1429.77</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>30789.608094</v>
+        <v>30789.608093999999</v>
       </c>
       <c r="B8" s="1">
-        <v>8.552669</v>
+        <v>8.5526689999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>901.142000</v>
+        <v>901.14200000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-203.248000</v>
+        <v>-203.24799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>30800.091572</v>
+        <v>30800.091572000001</v>
       </c>
       <c r="G8" s="1">
-        <v>8.555581</v>
+        <v>8.5555810000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>919.489000</v>
+        <v>919.48900000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-172.072000</v>
+        <v>-172.072</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>30810.180658</v>
+        <v>30810.180658000001</v>
       </c>
       <c r="L8" s="1">
-        <v>8.558384</v>
+        <v>8.5583840000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>942.744000</v>
+        <v>942.74400000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.785000</v>
+        <v>-121.785</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>30820.696373</v>
+        <v>30820.696372999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.561305</v>
+        <v>8.5613050000000008</v>
       </c>
       <c r="R8" s="1">
-        <v>949.751000</v>
+        <v>949.75099999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.807000</v>
+        <v>-104.807</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>30831.233351</v>
+        <v>30831.233350999999</v>
       </c>
       <c r="V8" s="1">
-        <v>8.564231</v>
+        <v>8.5642309999999995</v>
       </c>
       <c r="W8" s="1">
-        <v>956.296000</v>
+        <v>956.29600000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.421300</v>
+        <v>-89.421300000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>30841.730681</v>
+        <v>30841.730681000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.567147</v>
+        <v>8.5671470000000003</v>
       </c>
       <c r="AB8" s="1">
-        <v>963.420000</v>
+        <v>963.42</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.284100</v>
+        <v>-77.284099999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>30851.983872</v>
+        <v>30851.983872000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.569996</v>
+        <v>8.5699959999999997</v>
       </c>
       <c r="AG8" s="1">
-        <v>968.112000</v>
+        <v>968.11199999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.063900</v>
+        <v>-75.063900000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>30862.504127</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.572918</v>
+        <v>8.5729179999999996</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.249000</v>
+        <v>975.24900000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.534800</v>
+        <v>-79.534800000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>30872.820912</v>
+        <v>30872.820911999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.575784</v>
+        <v>8.5757840000000005</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.247000</v>
+        <v>983.24699999999996</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.939100</v>
+        <v>-90.939099999999996</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>30883.133266</v>
+        <v>30883.133266000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.578648</v>
+        <v>8.5786479999999994</v>
       </c>
       <c r="AV8" s="1">
-        <v>993.032000</v>
+        <v>993.03200000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.540000</v>
+        <v>-108.54</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>30894.255027</v>
+        <v>30894.255026999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.581738</v>
+        <v>8.5817379999999996</v>
       </c>
       <c r="BA8" s="1">
-        <v>1001.210000</v>
+        <v>1001.21</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.077000</v>
+        <v>-124.077</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>30905.193839</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.584776</v>
+        <v>8.5847759999999997</v>
       </c>
       <c r="BF8" s="1">
-        <v>1039.440000</v>
+        <v>1039.44</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.963000</v>
+        <v>-195.96299999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>30916.991639</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.588053</v>
+        <v>8.5880530000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.530000</v>
+        <v>1105.53</v>
       </c>
       <c r="BL8" s="1">
-        <v>-312.974000</v>
+        <v>-312.97399999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>30927.686411</v>
+        <v>30927.686410999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.591024</v>
+        <v>8.5910240000000009</v>
       </c>
       <c r="BP8" s="1">
-        <v>1213.390000</v>
+        <v>1213.3900000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-497.782000</v>
+        <v>-497.78199999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>30938.086525</v>
+        <v>30938.086524999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>8.593913</v>
+        <v>8.5939130000000006</v>
       </c>
       <c r="BU8" s="1">
-        <v>1335.150000</v>
+        <v>1335.15</v>
       </c>
       <c r="BV8" s="1">
-        <v>-700.352000</v>
+        <v>-700.35199999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>30948.845708</v>
+        <v>30948.845708000001</v>
       </c>
       <c r="BY8" s="1">
         <v>8.596902</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1471.350000</v>
+        <v>1471.35</v>
       </c>
       <c r="CA8" s="1">
-        <v>-916.803000</v>
+        <v>-916.803</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>30960.373262</v>
+        <v>30960.373262000001</v>
       </c>
       <c r="CD8" s="1">
         <v>8.600104</v>
       </c>
       <c r="CE8" s="1">
-        <v>1829.880000</v>
+        <v>1829.88</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1431.130000</v>
+        <v>-1431.13</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>30790.046062</v>
+        <v>30790.046062000001</v>
       </c>
       <c r="B9" s="1">
-        <v>8.552791</v>
+        <v>8.5527909999999991</v>
       </c>
       <c r="C9" s="1">
-        <v>901.394000</v>
+        <v>901.39400000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-203.343000</v>
+        <v>-203.34299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>30800.367311</v>
+        <v>30800.367311000002</v>
       </c>
       <c r="G9" s="1">
-        <v>8.555658</v>
+        <v>8.5556579999999993</v>
       </c>
       <c r="H9" s="1">
-        <v>919.190000</v>
+        <v>919.19</v>
       </c>
       <c r="I9" s="1">
-        <v>-172.060000</v>
+        <v>-172.06</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>30810.524917</v>
+        <v>30810.524916999999</v>
       </c>
       <c r="L9" s="1">
-        <v>8.558479</v>
+        <v>8.5584790000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>942.824000</v>
+        <v>942.82399999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.676000</v>
+        <v>-121.676</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>30821.046518</v>
+        <v>30821.046517999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.561402</v>
+        <v>8.5614019999999993</v>
       </c>
       <c r="R9" s="1">
-        <v>949.783000</v>
+        <v>949.78300000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.798000</v>
+        <v>-104.798</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>30831.576087</v>
+        <v>30831.576087000001</v>
       </c>
       <c r="V9" s="1">
-        <v>8.564327</v>
+        <v>8.5643270000000005</v>
       </c>
       <c r="W9" s="1">
-        <v>956.325000</v>
+        <v>956.32500000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.405100</v>
+        <v>-89.405100000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>30842.428087</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.567341</v>
+        <v>8.5673410000000008</v>
       </c>
       <c r="AB9" s="1">
-        <v>963.436000</v>
+        <v>963.43600000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.482900</v>
+        <v>-77.482900000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>30852.670476</v>
+        <v>30852.670475999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.570186</v>
+        <v>8.5701859999999996</v>
       </c>
       <c r="AG9" s="1">
-        <v>968.108000</v>
+        <v>968.10799999999995</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.104800</v>
+        <v>-75.104799999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>30862.851325</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.573014</v>
+        <v>8.5730140000000006</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.241000</v>
+        <v>975.24099999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.497100</v>
+        <v>-79.497100000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>30873.178033</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.575883</v>
+        <v>8.5758829999999993</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.263000</v>
+        <v>983.26300000000003</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.958800</v>
+        <v>-90.958799999999997</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>30883.496833</v>
+        <v>30883.496833000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.578749</v>
+        <v>8.5787490000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>993.022000</v>
+        <v>993.02200000000005</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.545000</v>
+        <v>-108.545</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>30894.920659</v>
+        <v>30894.920658999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.581922</v>
+        <v>8.5819220000000005</v>
       </c>
       <c r="BA9" s="1">
-        <v>1001.200000</v>
+        <v>1001.2</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.077000</v>
+        <v>-124.077</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>30905.878774</v>
+        <v>30905.878774000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.584966</v>
+        <v>8.5849659999999997</v>
       </c>
       <c r="BF9" s="1">
-        <v>1039.430000</v>
+        <v>1039.43</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.953000</v>
+        <v>-195.953</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>30917.460855</v>
+        <v>30917.460855000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>8.588184</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.550000</v>
+        <v>1105.55</v>
       </c>
       <c r="BL9" s="1">
-        <v>-312.962000</v>
+        <v>-312.96199999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>30928.096599</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.591138</v>
+        <v>8.5911380000000008</v>
       </c>
       <c r="BP9" s="1">
-        <v>1213.390000</v>
+        <v>1213.3900000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-497.794000</v>
+        <v>-497.79399999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>30938.522003</v>
+        <v>30938.522002999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.594034</v>
+        <v>8.5940340000000006</v>
       </c>
       <c r="BU9" s="1">
-        <v>1335.250000</v>
+        <v>1335.25</v>
       </c>
       <c r="BV9" s="1">
-        <v>-700.472000</v>
+        <v>-700.47199999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>30949.274252</v>
+        <v>30949.274251999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.597021</v>
+        <v>8.5970209999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1471.380000</v>
+        <v>1471.38</v>
       </c>
       <c r="CA9" s="1">
-        <v>-917.038000</v>
+        <v>-917.03800000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>30960.904939</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.600251</v>
+        <v>8.6002510000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1829.620000</v>
+        <v>1829.62</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1429.680000</v>
+        <v>-1429.68</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>30790.305469</v>
+        <v>30790.305468999999</v>
       </c>
       <c r="B10" s="1">
-        <v>8.552863</v>
+        <v>8.5528630000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>901.393000</v>
+        <v>901.39300000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-203.129000</v>
+        <v>-203.12899999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>30800.709055</v>
+        <v>30800.709054999999</v>
       </c>
       <c r="G10" s="1">
-        <v>8.555753</v>
+        <v>8.5557529999999993</v>
       </c>
       <c r="H10" s="1">
-        <v>919.577000</v>
+        <v>919.577</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.887000</v>
+        <v>-171.887</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>30810.868646</v>
+        <v>30810.868645999999</v>
       </c>
       <c r="L10" s="1">
-        <v>8.558575</v>
+        <v>8.5585749999999994</v>
       </c>
       <c r="M10" s="1">
-        <v>942.806000</v>
+        <v>942.80600000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.833000</v>
+        <v>-121.833</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>30821.394708</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.561499</v>
+        <v>8.5614989999999995</v>
       </c>
       <c r="R10" s="1">
-        <v>949.727000</v>
+        <v>949.72699999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.873000</v>
+        <v>-104.873</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>30832.262549</v>
+        <v>30832.262548999999</v>
       </c>
       <c r="V10" s="1">
-        <v>8.564517</v>
+        <v>8.5645170000000004</v>
       </c>
       <c r="W10" s="1">
-        <v>956.290000</v>
+        <v>956.29</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.502300</v>
+        <v>-89.502300000000005</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>30842.774295</v>
+        <v>30842.774294999999</v>
       </c>
       <c r="AA10" s="1">
         <v>8.567437</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.379000</v>
+        <v>963.37900000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.507700</v>
+        <v>-77.5077</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>30853.013702</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.570282</v>
+        <v>8.5702820000000006</v>
       </c>
       <c r="AG10" s="1">
-        <v>968.122000</v>
+        <v>968.12199999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.058800</v>
+        <v>-75.058800000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>30863.202494</v>
+        <v>30863.202494000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.573112</v>
+        <v>8.5731120000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.262000</v>
+        <v>975.26199999999994</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.529800</v>
+        <v>-79.529799999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>30873.538623</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.575983</v>
+        <v>8.5759830000000008</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.256000</v>
+        <v>983.25599999999997</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.929500</v>
+        <v>-90.929500000000004</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>30884.171398</v>
+        <v>30884.171397999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.578936</v>
+        <v>8.5789360000000006</v>
       </c>
       <c r="AV10" s="1">
-        <v>993.055000</v>
+        <v>993.05499999999995</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.507000</v>
+        <v>-108.50700000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>30895.360611</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.582045</v>
+        <v>8.5820450000000008</v>
       </c>
       <c r="BA10" s="1">
-        <v>1001.220000</v>
+        <v>1001.22</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.052000</v>
+        <v>-124.05200000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>30906.300373</v>
+        <v>30906.300372999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.585083</v>
+        <v>8.5850829999999991</v>
       </c>
       <c r="BF10" s="1">
-        <v>1039.440000</v>
+        <v>1039.44</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.931000</v>
+        <v>-195.93100000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>30917.849752</v>
+        <v>30917.849751999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.588292</v>
+        <v>8.5882919999999991</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.560000</v>
+        <v>1105.56</v>
       </c>
       <c r="BL10" s="1">
-        <v>-312.971000</v>
+        <v>-312.971</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>30928.491879</v>
+        <v>30928.491879000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.591248</v>
+        <v>8.5912480000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1213.430000</v>
+        <v>1213.43</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-497.814000</v>
+        <v>-497.81400000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>30938.955480</v>
+        <v>30938.955480000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.594154</v>
+        <v>8.5941539999999996</v>
       </c>
       <c r="BU10" s="1">
-        <v>1335.300000</v>
+        <v>1335.3</v>
       </c>
       <c r="BV10" s="1">
-        <v>-700.595000</v>
+        <v>-700.59500000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>30949.696843</v>
+        <v>30949.696843000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.597138</v>
+        <v>8.5971379999999993</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1471.370000</v>
+        <v>1471.37</v>
       </c>
       <c r="CA10" s="1">
-        <v>-916.871000</v>
+        <v>-916.87099999999998</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>30961.424748</v>
+        <v>30961.424748000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.600396</v>
+        <v>8.6003959999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1828.250000</v>
+        <v>1828.25</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1430.650000</v>
+        <v>-1430.65</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>30790.637790</v>
+        <v>30790.637790000001</v>
       </c>
       <c r="B11" s="1">
-        <v>8.552955</v>
+        <v>8.5529550000000008</v>
       </c>
       <c r="C11" s="1">
-        <v>901.242000</v>
+        <v>901.24199999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-203.214000</v>
+        <v>-203.214</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>30801.053278</v>
+        <v>30801.053277999999</v>
       </c>
       <c r="G11" s="1">
-        <v>8.555848</v>
+        <v>8.5558479999999992</v>
       </c>
       <c r="H11" s="1">
-        <v>919.484000</v>
+        <v>919.48400000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.570000</v>
+        <v>-171.57</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>30811.560032</v>
+        <v>30811.560032000001</v>
       </c>
       <c r="L11" s="1">
-        <v>8.558767</v>
+        <v>8.5587669999999996</v>
       </c>
       <c r="M11" s="1">
-        <v>943.277000</v>
+        <v>943.27700000000004</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.289000</v>
+        <v>-121.289</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>30822.092119</v>
+        <v>30822.092119000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.561692</v>
+        <v>8.5616920000000007</v>
       </c>
       <c r="R11" s="1">
-        <v>949.682000</v>
+        <v>949.68200000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.900000</v>
+        <v>-104.9</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>30832.606277</v>
+        <v>30832.606276999999</v>
       </c>
       <c r="V11" s="1">
-        <v>8.564613</v>
+        <v>8.5646129999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>956.265000</v>
+        <v>956.26499999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.509400</v>
+        <v>-89.509399999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>30843.123480</v>
+        <v>30843.123479999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.567534</v>
+        <v>8.5675340000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.387000</v>
+        <v>963.38699999999994</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.501900</v>
+        <v>-77.501900000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>30853.356939</v>
+        <v>30853.356939000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.570377</v>
+        <v>8.5703770000000006</v>
       </c>
       <c r="AG11" s="1">
-        <v>968.097000</v>
+        <v>968.09699999999998</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.084200</v>
+        <v>-75.084199999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>30863.851789</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.573292</v>
+        <v>8.5732920000000004</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.265000</v>
+        <v>975.26499999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.518500</v>
+        <v>-79.518500000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>30873.965182</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.576101</v>
+        <v>8.5761009999999995</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.264000</v>
+        <v>983.26400000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.945900</v>
+        <v>-90.945899999999995</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>30884.625200</v>
+        <v>30884.625199999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.579063</v>
+        <v>8.5790629999999997</v>
       </c>
       <c r="AV11" s="1">
-        <v>993.042000</v>
+        <v>993.04200000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.515000</v>
+        <v>-108.515</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>30895.718258</v>
+        <v>30895.718258000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>8.582144</v>
+        <v>8.5821439999999996</v>
       </c>
       <c r="BA11" s="1">
-        <v>1001.210000</v>
+        <v>1001.21</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.066000</v>
+        <v>-124.066</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>30906.661469</v>
+        <v>30906.661468999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.585184</v>
+        <v>8.5851839999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1039.440000</v>
+        <v>1039.44</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.941000</v>
+        <v>-195.941</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>30918.222708</v>
+        <v>30918.222708000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.588395</v>
+        <v>8.5883950000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.590000</v>
+        <v>1105.5899999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-312.932000</v>
+        <v>-312.93200000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>30928.913479</v>
+        <v>30928.913478999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>8.591365</v>
+        <v>8.5913649999999997</v>
       </c>
       <c r="BP11" s="1">
-        <v>1213.400000</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-497.796000</v>
+        <v>-497.79599999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>30939.388984</v>
+        <v>30939.388984000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.594275</v>
+        <v>8.5942749999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>1335.350000</v>
+        <v>1335.35</v>
       </c>
       <c r="BV11" s="1">
-        <v>-700.761000</v>
+        <v>-700.76099999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>30950.117490</v>
+        <v>30950.117490000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.597255</v>
+        <v>8.5972550000000005</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1471.320000</v>
+        <v>1471.32</v>
       </c>
       <c r="CA11" s="1">
-        <v>-916.916000</v>
+        <v>-916.91600000000005</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>30961.940123</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.600539</v>
+        <v>8.6005389999999995</v>
       </c>
       <c r="CE11" s="1">
-        <v>1828.870000</v>
+        <v>1828.87</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1431.680000</v>
+        <v>-1431.68</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>30791.331227</v>
+        <v>30791.331226999999</v>
       </c>
       <c r="B12" s="1">
-        <v>8.553148</v>
+        <v>8.5531480000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>901.359000</v>
+        <v>901.35900000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-203.346000</v>
+        <v>-203.346</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>30801.741230</v>
+        <v>30801.74123</v>
       </c>
       <c r="G12" s="1">
-        <v>8.556039</v>
+        <v>8.5560390000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>919.688000</v>
+        <v>919.68799999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-172.025000</v>
+        <v>-172.02500000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>30811.906736</v>
+        <v>30811.906736000001</v>
       </c>
       <c r="L12" s="1">
-        <v>8.558863</v>
+        <v>8.5588630000000006</v>
       </c>
       <c r="M12" s="1">
-        <v>943.098000</v>
+        <v>943.09799999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.423000</v>
+        <v>-121.423</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>30822.440275</v>
+        <v>30822.440275000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.561789</v>
+        <v>8.5617889999999992</v>
       </c>
       <c r="R12" s="1">
-        <v>949.648000</v>
+        <v>949.64800000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.076000</v>
+        <v>-105.07599999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>30832.951494</v>
+        <v>30832.951494000001</v>
       </c>
       <c r="V12" s="1">
-        <v>8.564709</v>
+        <v>8.5647090000000006</v>
       </c>
       <c r="W12" s="1">
-        <v>956.295000</v>
+        <v>956.29499999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.492200</v>
+        <v>-89.492199999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>30843.781640</v>
+        <v>30843.781640000001</v>
       </c>
       <c r="AA12" s="1">
         <v>8.567717</v>
       </c>
       <c r="AB12" s="1">
-        <v>963.443000</v>
+        <v>963.44299999999998</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.286000</v>
+        <v>-77.286000000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>30854.016089</v>
+        <v>30854.016089000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.570560</v>
+        <v>8.5705600000000004</v>
       </c>
       <c r="AG12" s="1">
-        <v>968.109000</v>
+        <v>968.10900000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.101900</v>
+        <v>-75.101900000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>30864.246571</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.573402</v>
+        <v>8.5734019999999997</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.229000</v>
+        <v>975.22900000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.484700</v>
+        <v>-79.484700000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>30874.256334</v>
+        <v>30874.256334000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.576182</v>
+        <v>8.5761819999999993</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.272000</v>
+        <v>983.27200000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.946700</v>
+        <v>-90.946700000000007</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>30884.989295</v>
+        <v>30884.989294999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.579164</v>
+        <v>8.5791640000000005</v>
       </c>
       <c r="AV12" s="1">
-        <v>993.046000</v>
+        <v>993.04600000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.501000</v>
+        <v>-108.501</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>30896.078322</v>
+        <v>30896.078322000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.582244</v>
+        <v>8.5822439999999993</v>
       </c>
       <c r="BA12" s="1">
-        <v>1001.220000</v>
+        <v>1001.22</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.075000</v>
+        <v>-124.075</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>30907.367268</v>
+        <v>30907.367268000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.585380</v>
+        <v>8.5853800000000007</v>
       </c>
       <c r="BF12" s="1">
-        <v>1039.460000</v>
+        <v>1039.46</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.956000</v>
+        <v>-195.95599999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>30918.632403</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.588509</v>
+        <v>8.5885090000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.540000</v>
+        <v>1105.54</v>
       </c>
       <c r="BL12" s="1">
-        <v>-312.977000</v>
+        <v>-312.97699999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>30929.310785</v>
+        <v>30929.310785000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.591475</v>
+        <v>8.5914750000000009</v>
       </c>
       <c r="BP12" s="1">
-        <v>1213.390000</v>
+        <v>1213.3900000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-497.775000</v>
+        <v>-497.77499999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>30939.794215</v>
+        <v>30939.794215000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.594387</v>
+        <v>8.5943869999999993</v>
       </c>
       <c r="BU12" s="1">
-        <v>1335.310000</v>
+        <v>1335.31</v>
       </c>
       <c r="BV12" s="1">
-        <v>-700.725000</v>
+        <v>-700.72500000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>30950.544505</v>
+        <v>30950.544505000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.597373</v>
+        <v>8.5973729999999993</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1471.260000</v>
+        <v>1471.26</v>
       </c>
       <c r="CA12" s="1">
-        <v>-916.876000</v>
+        <v>-916.87599999999998</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>30962.459402</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.600683</v>
+        <v>8.6006830000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1830.220000</v>
+        <v>1830.22</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1431.090000</v>
+        <v>-1431.09</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>30791.680379</v>
+        <v>30791.680379000001</v>
       </c>
       <c r="B13" s="1">
-        <v>8.553245</v>
+        <v>8.5532450000000004</v>
       </c>
       <c r="C13" s="1">
-        <v>901.395000</v>
+        <v>901.39499999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-203.407000</v>
+        <v>-203.40700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>30802.086446</v>
+        <v>30802.086446000001</v>
       </c>
       <c r="G13" s="1">
-        <v>8.556135</v>
+        <v>8.5561349999999994</v>
       </c>
       <c r="H13" s="1">
-        <v>919.637000</v>
+        <v>919.63699999999994</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.846000</v>
+        <v>-171.846</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>30812.254202</v>
       </c>
       <c r="L13" s="1">
-        <v>8.558960</v>
+        <v>8.5589600000000008</v>
       </c>
       <c r="M13" s="1">
-        <v>942.931000</v>
+        <v>942.93100000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.642000</v>
+        <v>-121.642</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>30822.810289</v>
+        <v>30822.810289000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.561892</v>
+        <v>8.5618920000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>949.650000</v>
+        <v>949.65</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.044000</v>
+        <v>-105.044</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>30833.602246</v>
+        <v>30833.602245999999</v>
       </c>
       <c r="V13" s="1">
-        <v>8.564890</v>
+        <v>8.5648900000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>956.288000</v>
+        <v>956.28800000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.397500</v>
+        <v>-89.397499999999994</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>30844.181415</v>
+        <v>30844.181414999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.567828</v>
+        <v>8.5678280000000004</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.401000</v>
+        <v>963.40099999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.466700</v>
+        <v>-77.466700000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>30854.386601</v>
+        <v>30854.386600999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.570663</v>
+        <v>8.5706629999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>968.119000</v>
+        <v>968.11900000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.073900</v>
+        <v>-75.073899999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>30864.596748</v>
@@ -3413,330 +3829,330 @@
         <v>8.573499</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.256000</v>
+        <v>975.25599999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.502500</v>
+        <v>-79.502499999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>30874.621390</v>
+        <v>30874.62139</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.576284</v>
+        <v>8.5762839999999994</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.269000</v>
+        <v>983.26900000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.943600</v>
+        <v>-90.943600000000004</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>30885.352337</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.579265</v>
+        <v>8.5792649999999995</v>
       </c>
       <c r="AV13" s="1">
-        <v>993.038000</v>
+        <v>993.03800000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.502000</v>
+        <v>-108.502</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>30896.507361</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.582363</v>
+        <v>8.5823630000000009</v>
       </c>
       <c r="BA13" s="1">
-        <v>1001.240000</v>
+        <v>1001.24</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.081000</v>
+        <v>-124.081</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>30907.773985</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.585493</v>
+        <v>8.5854929999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1039.450000</v>
+        <v>1039.45</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.955000</v>
+        <v>-195.95500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>30918.973683</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.588604</v>
+        <v>8.5886040000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.570000</v>
+        <v>1105.57</v>
       </c>
       <c r="BL13" s="1">
-        <v>-312.946000</v>
+        <v>-312.94600000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>30929.732870</v>
+        <v>30929.73287</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.591592</v>
+        <v>8.5915920000000003</v>
       </c>
       <c r="BP13" s="1">
-        <v>1213.400000</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-497.745000</v>
+        <v>-497.745</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>30940.226040</v>
+        <v>30940.226040000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.594507</v>
+        <v>8.5945070000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1335.170000</v>
+        <v>1335.17</v>
       </c>
       <c r="BV13" s="1">
-        <v>-700.847000</v>
+        <v>-700.84699999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>30950.962136</v>
+        <v>30950.962135999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.597489</v>
+        <v>8.5974889999999995</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1471.330000</v>
+        <v>1471.33</v>
       </c>
       <c r="CA13" s="1">
-        <v>-916.884000</v>
+        <v>-916.88400000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>30962.975774</v>
+        <v>30962.975773999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.600827</v>
+        <v>8.6008270000000007</v>
       </c>
       <c r="CE13" s="1">
-        <v>1829.530000</v>
+        <v>1829.53</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1430.330000</v>
+        <v>-1430.33</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>30792.020636</v>
+        <v>30792.020636000001</v>
       </c>
       <c r="B14" s="1">
-        <v>8.553339</v>
+        <v>8.5533389999999994</v>
       </c>
       <c r="C14" s="1">
-        <v>901.291000</v>
+        <v>901.29100000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-203.366000</v>
+        <v>-203.36600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>30802.428721</v>
       </c>
       <c r="G14" s="1">
-        <v>8.556230</v>
+        <v>8.5562299999999993</v>
       </c>
       <c r="H14" s="1">
-        <v>919.483000</v>
+        <v>919.48299999999995</v>
       </c>
       <c r="I14" s="1">
-        <v>-172.023000</v>
+        <v>-172.023</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>30812.898767</v>
+        <v>30812.898766999999</v>
       </c>
       <c r="L14" s="1">
-        <v>8.559139</v>
+        <v>8.5591390000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>942.997000</v>
+        <v>942.99699999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.483000</v>
+        <v>-121.483</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>30823.477447</v>
+        <v>30823.477447000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.562077</v>
+        <v>8.5620770000000004</v>
       </c>
       <c r="R14" s="1">
-        <v>949.670000</v>
+        <v>949.67</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.035000</v>
+        <v>-105.035</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>30833.983203</v>
       </c>
       <c r="V14" s="1">
-        <v>8.564995</v>
+        <v>8.5649949999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>956.307000</v>
+        <v>956.30700000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.301600</v>
+        <v>-89.301599999999993</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>30844.521669</v>
+        <v>30844.521669000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.567923</v>
+        <v>8.5679230000000004</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.291000</v>
+        <v>963.29100000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.416800</v>
+        <v>-77.416799999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>30854.733641</v>
+        <v>30854.733640999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.570759</v>
+        <v>8.5707590000000007</v>
       </c>
       <c r="AG14" s="1">
-        <v>968.105000</v>
+        <v>968.10500000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.071700</v>
+        <v>-75.071700000000007</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>30864.942956</v>
+        <v>30864.942955999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.573595</v>
+        <v>8.5735949999999992</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.255000</v>
+        <v>975.255</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.590600</v>
+        <v>-79.590599999999995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>30875.051917</v>
+        <v>30875.051917000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.576403</v>
+        <v>8.5764030000000009</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.255000</v>
+        <v>983.255</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.964500</v>
+        <v>-90.964500000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>30885.780385</v>
+        <v>30885.780384999998</v>
       </c>
       <c r="AU14" s="1">
         <v>8.579383</v>
       </c>
       <c r="AV14" s="1">
-        <v>993.049000</v>
+        <v>993.04899999999998</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.501000</v>
+        <v>-108.501</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>30896.794544</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.582443</v>
+        <v>8.5824429999999996</v>
       </c>
       <c r="BA14" s="1">
-        <v>1001.220000</v>
+        <v>1001.22</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.066000</v>
+        <v>-124.066</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>30908.132593</v>
+        <v>30908.132592999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.585592</v>
+        <v>8.5855920000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1039.440000</v>
+        <v>1039.44</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.935000</v>
+        <v>-195.935</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>30919.358547</v>
@@ -3745,861 +4161,861 @@
         <v>8.588711</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.560000</v>
+        <v>1105.56</v>
       </c>
       <c r="BL14" s="1">
-        <v>-312.963000</v>
+        <v>-312.96300000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>30930.132148</v>
+        <v>30930.132148000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.591703</v>
+        <v>8.5917030000000008</v>
       </c>
       <c r="BP14" s="1">
-        <v>1213.370000</v>
+        <v>1213.3699999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-497.797000</v>
+        <v>-497.79700000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>30940.757446</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.594655</v>
+        <v>8.5946549999999995</v>
       </c>
       <c r="BU14" s="1">
-        <v>1335.130000</v>
+        <v>1335.13</v>
       </c>
       <c r="BV14" s="1">
-        <v>-700.945000</v>
+        <v>-700.94500000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>30951.407581</v>
+        <v>30951.407580999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.597613</v>
+        <v>8.5976130000000008</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1471.360000</v>
+        <v>1471.36</v>
       </c>
       <c r="CA14" s="1">
-        <v>-916.857000</v>
+        <v>-916.85699999999997</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>30963.498552</v>
+        <v>30963.498552000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.600972</v>
+        <v>8.6009720000000005</v>
       </c>
       <c r="CE14" s="1">
-        <v>1829.750000</v>
+        <v>1829.75</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1429.980000</v>
+        <v>-1429.98</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>30792.682794</v>
       </c>
       <c r="B15" s="1">
-        <v>8.553523</v>
+        <v>8.5535230000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>901.383000</v>
+        <v>901.38300000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-203.228000</v>
+        <v>-203.22800000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>30803.089355</v>
       </c>
       <c r="G15" s="1">
-        <v>8.556414</v>
+        <v>8.5564140000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>919.342000</v>
+        <v>919.34199999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.707000</v>
+        <v>-171.70699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>30813.291070</v>
+        <v>30813.291069999999</v>
       </c>
       <c r="L15" s="1">
-        <v>8.559248</v>
+        <v>8.5592480000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>943.235000</v>
+        <v>943.23500000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.507000</v>
+        <v>-121.50700000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>30823.865813</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.562185</v>
+        <v>8.5621849999999995</v>
       </c>
       <c r="R15" s="1">
-        <v>949.696000</v>
+        <v>949.69600000000003</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.053000</v>
+        <v>-105.053</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>30834.325411</v>
+        <v>30834.325411000002</v>
       </c>
       <c r="V15" s="1">
-        <v>8.565090</v>
+        <v>8.5650899999999996</v>
       </c>
       <c r="W15" s="1">
-        <v>956.370000</v>
+        <v>956.37</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.324600</v>
+        <v>-89.324600000000004</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>30844.868380</v>
+        <v>30844.86838</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.568019</v>
+        <v>8.5680189999999996</v>
       </c>
       <c r="AB15" s="1">
-        <v>963.525000</v>
+        <v>963.52499999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.495100</v>
+        <v>-77.495099999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>30855.081037</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.570856</v>
+        <v>8.5708559999999991</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.124000</v>
+        <v>968.12400000000002</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.078000</v>
+        <v>-75.078000000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>30865.374010</v>
+        <v>30865.37401</v>
       </c>
       <c r="AK15" s="1">
         <v>8.573715</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.258000</v>
+        <v>975.25800000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.516700</v>
+        <v>-79.5167</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>30875.340589</v>
+        <v>30875.340588999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.576483</v>
+        <v>8.5764829999999996</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.269000</v>
+        <v>983.26900000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.946700</v>
+        <v>-90.946700000000007</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>30886.084928</v>
       </c>
       <c r="AU15" s="1">
-        <v>8.579468</v>
+        <v>8.5794680000000003</v>
       </c>
       <c r="AV15" s="1">
-        <v>993.049000</v>
+        <v>993.04899999999998</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.504000</v>
+        <v>-108.504</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>30897.155137</v>
+        <v>30897.155137000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.582543</v>
+        <v>8.5825429999999994</v>
       </c>
       <c r="BA15" s="1">
-        <v>1001.220000</v>
+        <v>1001.22</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.063000</v>
+        <v>-124.063</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>30908.496195</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.585693</v>
+        <v>8.5856929999999991</v>
       </c>
       <c r="BF15" s="1">
-        <v>1039.430000</v>
+        <v>1039.43</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.933000</v>
+        <v>-195.93299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>30919.749395</v>
+        <v>30919.749394999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.588819</v>
+        <v>8.5888190000000009</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.570000</v>
+        <v>1105.57</v>
       </c>
       <c r="BL15" s="1">
-        <v>-312.988000</v>
+        <v>-312.988</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>30930.561188</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.591823</v>
+        <v>8.5918229999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1213.410000</v>
+        <v>1213.4100000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-497.780000</v>
+        <v>-497.78</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>30941.067447</v>
+        <v>30941.067447000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.594741</v>
+        <v>8.5947410000000009</v>
       </c>
       <c r="BU15" s="1">
-        <v>1335.010000</v>
+        <v>1335.01</v>
       </c>
       <c r="BV15" s="1">
-        <v>-700.971000</v>
+        <v>-700.971</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>30951.831659</v>
+        <v>30951.831658999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.597731</v>
+        <v>8.5977309999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1471.290000</v>
+        <v>1471.29</v>
       </c>
       <c r="CA15" s="1">
-        <v>-916.868000</v>
+        <v>-916.86800000000005</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>30964.048121</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.601124</v>
+        <v>8.6011240000000004</v>
       </c>
       <c r="CE15" s="1">
-        <v>1829.950000</v>
+        <v>1829.95</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1431.110000</v>
+        <v>-1431.11</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>30793.044873</v>
+        <v>30793.044872999999</v>
       </c>
       <c r="B16" s="1">
-        <v>8.553624</v>
+        <v>8.5536239999999992</v>
       </c>
       <c r="C16" s="1">
-        <v>901.444000</v>
+        <v>901.44399999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-203.269000</v>
+        <v>-203.26900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>30803.461851</v>
       </c>
       <c r="G16" s="1">
-        <v>8.556517</v>
+        <v>8.5565169999999995</v>
       </c>
       <c r="H16" s="1">
-        <v>919.618000</v>
+        <v>919.61800000000005</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.788000</v>
+        <v>-171.78800000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>30813.632815</v>
+        <v>30813.632815000001</v>
       </c>
       <c r="L16" s="1">
-        <v>8.559342</v>
+        <v>8.5593419999999991</v>
       </c>
       <c r="M16" s="1">
-        <v>942.916000</v>
+        <v>942.91600000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.486000</v>
+        <v>-121.486</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>30824.201074</v>
+        <v>30824.201074000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.562278</v>
+        <v>8.5622779999999992</v>
       </c>
       <c r="R16" s="1">
-        <v>949.675000</v>
+        <v>949.67499999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.044000</v>
+        <v>-105.044</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>30834.672611</v>
+        <v>30834.672611000002</v>
       </c>
       <c r="V16" s="1">
-        <v>8.565187</v>
+        <v>8.5651869999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>956.299000</v>
+        <v>956.29899999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.369900</v>
+        <v>-89.369900000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>30845.298436</v>
+        <v>30845.298436000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.568138</v>
+        <v>8.5681379999999994</v>
       </c>
       <c r="AB16" s="1">
-        <v>963.421000</v>
+        <v>963.42100000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.454500</v>
+        <v>-77.454499999999996</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>30855.509047</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.570975</v>
+        <v>8.5709750000000007</v>
       </c>
       <c r="AG16" s="1">
-        <v>968.092000</v>
+        <v>968.09199999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.052500</v>
+        <v>-75.052499999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>30865.656233</v>
+        <v>30865.656233000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.573793</v>
+        <v>8.5737930000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.244000</v>
+        <v>975.24400000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.530100</v>
+        <v>-79.530100000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>30875.701676</v>
+        <v>30875.701676000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.576584</v>
+        <v>8.5765840000000004</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.253000</v>
+        <v>983.25300000000004</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.954200</v>
+        <v>-90.9542</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>30886.450509</v>
+        <v>30886.450508999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.579570</v>
+        <v>8.5795700000000004</v>
       </c>
       <c r="AV16" s="1">
-        <v>993.051000</v>
+        <v>993.05100000000004</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.490000</v>
+        <v>-108.49</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>30897.513100</v>
+        <v>30897.5131</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.582643</v>
+        <v>8.5826429999999991</v>
       </c>
       <c r="BA16" s="1">
-        <v>1001.220000</v>
+        <v>1001.22</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.073000</v>
+        <v>-124.07299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>30909.220845</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.585895</v>
+        <v>8.5858950000000007</v>
       </c>
       <c r="BF16" s="1">
-        <v>1039.450000</v>
+        <v>1039.45</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.964000</v>
+        <v>-195.964</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>30920.498384</v>
+        <v>30920.498383999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.589027</v>
+        <v>8.5890269999999997</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.590000</v>
+        <v>1105.5899999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-312.977000</v>
+        <v>-312.97699999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>30930.945091</v>
+        <v>30930.945091000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.591929</v>
+        <v>8.5919290000000004</v>
       </c>
       <c r="BP16" s="1">
-        <v>1213.420000</v>
+        <v>1213.42</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-497.795000</v>
+        <v>-497.79500000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>30941.493543</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.594859</v>
+        <v>8.5948589999999996</v>
       </c>
       <c r="BU16" s="1">
-        <v>1334.870000</v>
+        <v>1334.87</v>
       </c>
       <c r="BV16" s="1">
-        <v>-700.989000</v>
+        <v>-700.98900000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>30952.254216</v>
+        <v>30952.254216000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.597848</v>
+        <v>8.5978480000000008</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="CA16" s="1">
-        <v>-916.883000</v>
+        <v>-916.88300000000004</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>30964.890500</v>
+        <v>30964.890500000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.601358</v>
+        <v>8.6013579999999994</v>
       </c>
       <c r="CE16" s="1">
-        <v>1829.880000</v>
+        <v>1829.88</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1430.240000</v>
+        <v>-1430.24</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>30793.388601</v>
+        <v>30793.388600999999</v>
       </c>
       <c r="B17" s="1">
-        <v>8.553719</v>
+        <v>8.5537189999999992</v>
       </c>
       <c r="C17" s="1">
-        <v>901.318000</v>
+        <v>901.31799999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>-203.133000</v>
+        <v>-203.13300000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>30803.812523</v>
+        <v>30803.812523000001</v>
       </c>
       <c r="G17" s="1">
-        <v>8.556615</v>
+        <v>8.5566150000000007</v>
       </c>
       <c r="H17" s="1">
-        <v>919.307000</v>
+        <v>919.30700000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.695000</v>
+        <v>-171.69499999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>30813.980511</v>
+        <v>30813.980511000002</v>
       </c>
       <c r="L17" s="1">
-        <v>8.559439</v>
+        <v>8.5594389999999994</v>
       </c>
       <c r="M17" s="1">
-        <v>943.099000</v>
+        <v>943.09900000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.566000</v>
+        <v>-121.566</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>30824.612751</v>
+        <v>30824.612751000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.562392</v>
+        <v>8.5623919999999991</v>
       </c>
       <c r="R17" s="1">
-        <v>949.640000</v>
+        <v>949.64</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.997000</v>
+        <v>-104.997</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>30835.098715</v>
       </c>
       <c r="V17" s="1">
-        <v>8.565305</v>
+        <v>8.5653050000000004</v>
       </c>
       <c r="W17" s="1">
-        <v>956.419000</v>
+        <v>956.41899999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.358700</v>
+        <v>-89.358699999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>30845.578180</v>
+        <v>30845.57818</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.568216</v>
+        <v>8.5682159999999996</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.415000</v>
+        <v>963.41499999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.508500</v>
+        <v>-77.508499999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>30855.786311</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.571052</v>
+        <v>8.5710519999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>968.077000</v>
+        <v>968.077</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.036500</v>
+        <v>-75.036500000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>30866.001417</v>
+        <v>30866.001416999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.573889</v>
+        <v>8.5738889999999994</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.239000</v>
+        <v>975.23900000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.522800</v>
+        <v>-79.522800000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>30876.060286</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.576683</v>
+        <v>8.5766829999999992</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.271000</v>
+        <v>983.27099999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.928700</v>
+        <v>-90.928700000000006</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>30886.813550</v>
+        <v>30886.813549999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.579670</v>
+        <v>8.5796700000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>993.075000</v>
+        <v>993.07500000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.503000</v>
+        <v>-108.503</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>30898.230996</v>
+        <v>30898.230995999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.582842</v>
+        <v>8.5828419999999994</v>
       </c>
       <c r="BA17" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.055000</v>
+        <v>-124.05500000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>30909.609183</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.586003</v>
+        <v>8.5860029999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1039.450000</v>
+        <v>1039.45</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.961000</v>
+        <v>-195.96100000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>30920.897634</v>
+        <v>30920.897634000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.589138</v>
+        <v>8.5891380000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.550000</v>
+        <v>1105.55</v>
       </c>
       <c r="BL17" s="1">
-        <v>-312.989000</v>
+        <v>-312.98899999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>30931.366226</v>
+        <v>30931.366225999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.592046</v>
+        <v>8.5920459999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1213.410000</v>
+        <v>1213.4100000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-497.748000</v>
+        <v>-497.74799999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>30942.218165</v>
+        <v>30942.218164999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.595061</v>
+        <v>8.5950609999999994</v>
       </c>
       <c r="BU17" s="1">
-        <v>1334.910000</v>
+        <v>1334.91</v>
       </c>
       <c r="BV17" s="1">
-        <v>-700.906000</v>
+        <v>-700.90599999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>30953.013094</v>
+        <v>30953.013094000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.598059</v>
+        <v>8.5980589999999992</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1471.260000</v>
+        <v>1471.26</v>
       </c>
       <c r="CA17" s="1">
-        <v>-917.075000</v>
+        <v>-917.07500000000005</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>30965.129365</v>
+        <v>30965.129365000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.601425</v>
+        <v>8.6014250000000008</v>
       </c>
       <c r="CE17" s="1">
-        <v>1828.850000</v>
+        <v>1828.85</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1430.530000</v>
+        <v>-1430.53</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>30793.727896</v>
       </c>
       <c r="B18" s="1">
-        <v>8.553813</v>
+        <v>8.5538129999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>901.364000</v>
+        <v>901.36400000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-203.377000</v>
+        <v>-203.37700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>30804.158766</v>
@@ -4608,1086 +5024,1086 @@
         <v>8.556711</v>
       </c>
       <c r="H18" s="1">
-        <v>919.891000</v>
+        <v>919.89099999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-172.132000</v>
+        <v>-172.13200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>30814.406077</v>
       </c>
       <c r="L18" s="1">
-        <v>8.559557</v>
+        <v>8.5595569999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>943.025000</v>
+        <v>943.02499999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.605000</v>
+        <v>-121.605</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>30824.898448</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.562472</v>
+        <v>8.5624719999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>949.613000</v>
+        <v>949.61300000000006</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.942000</v>
+        <v>-104.94199999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>30835.376930</v>
+        <v>30835.376929999999</v>
       </c>
       <c r="V18" s="1">
-        <v>8.565382</v>
+        <v>8.5653819999999996</v>
       </c>
       <c r="W18" s="1">
-        <v>956.463000</v>
+        <v>956.46299999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.301000</v>
+        <v>-89.301000000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>30845.926339</v>
+        <v>30845.926339000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.568313</v>
+        <v>8.5683129999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>963.369000</v>
+        <v>963.36900000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.490700</v>
+        <v>-77.490700000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>30856.128091</v>
+        <v>30856.128090999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.571147</v>
+        <v>8.5711469999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>968.128000</v>
+        <v>968.12800000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.063200</v>
+        <v>-75.063199999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>30866.350600</v>
+        <v>30866.350600000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.573986</v>
+        <v>8.5739859999999997</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.253000</v>
+        <v>975.25300000000004</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.540300</v>
+        <v>-79.540300000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>30876.782955</v>
+        <v>30876.782954999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.576884</v>
+        <v>8.5768839999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.274000</v>
+        <v>983.274</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.948900</v>
+        <v>-90.948899999999995</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>30887.542701</v>
+        <v>30887.542700999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.579873</v>
+        <v>8.5798729999999992</v>
       </c>
       <c r="AV18" s="1">
-        <v>993.081000</v>
+        <v>993.08100000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.499000</v>
+        <v>-108.499</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>30898.586131</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.582941</v>
+        <v>8.5829409999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.068000</v>
+        <v>-124.068</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>30909.970271</v>
+        <v>30909.970270999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.586103</v>
+        <v>8.5861029999999996</v>
       </c>
       <c r="BF18" s="1">
-        <v>1039.450000</v>
+        <v>1039.45</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.955000</v>
+        <v>-195.95500000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>30921.274134</v>
+        <v>30921.274133999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.589243</v>
+        <v>8.5892429999999997</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.610000</v>
+        <v>1105.6099999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-312.966000</v>
+        <v>-312.96600000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>30932.070017</v>
+        <v>30932.070016999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.592242</v>
+        <v>8.5922420000000006</v>
       </c>
       <c r="BP18" s="1">
-        <v>1213.400000</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-497.798000</v>
+        <v>-497.798</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>30942.336221</v>
+        <v>30942.336221000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.595093</v>
+        <v>8.5950930000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>1334.760000</v>
+        <v>1334.76</v>
       </c>
       <c r="BV18" s="1">
-        <v>-700.811000</v>
+        <v>-700.81100000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>30953.132631</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.598092</v>
+        <v>8.5980919999999994</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1471.260000</v>
+        <v>1471.26</v>
       </c>
       <c r="CA18" s="1">
-        <v>-916.864000</v>
+        <v>-916.86400000000003</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>30965.664053</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.601573</v>
+        <v>8.6015730000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1829.650000</v>
+        <v>1829.65</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1431.980000</v>
+        <v>-1431.98</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>30794.141067</v>
       </c>
       <c r="B19" s="1">
-        <v>8.553928</v>
+        <v>8.5539280000000009</v>
       </c>
       <c r="C19" s="1">
-        <v>901.257000</v>
+        <v>901.25699999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-203.392000</v>
+        <v>-203.392</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>30804.581322</v>
+        <v>30804.581322000002</v>
       </c>
       <c r="G19" s="1">
-        <v>8.556828</v>
+        <v>8.5568279999999994</v>
       </c>
       <c r="H19" s="1">
-        <v>919.758000</v>
+        <v>919.75800000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-172.110000</v>
+        <v>-172.11</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>30814.694286</v>
+        <v>30814.694286000002</v>
       </c>
       <c r="L19" s="1">
-        <v>8.559637</v>
+        <v>8.5596370000000004</v>
       </c>
       <c r="M19" s="1">
-        <v>943.041000</v>
+        <v>943.04100000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.423000</v>
+        <v>-121.423</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>30825.248622</v>
+        <v>30825.248621999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.562569</v>
+        <v>8.5625689999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>949.702000</v>
+        <v>949.702</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.891000</v>
+        <v>-104.89100000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>30835.721650</v>
+        <v>30835.721649999999</v>
       </c>
       <c r="V19" s="1">
-        <v>8.565478</v>
+        <v>8.5654780000000006</v>
       </c>
       <c r="W19" s="1">
-        <v>956.416000</v>
+        <v>956.41600000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.325700</v>
+        <v>-89.325699999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>30846.272581</v>
+        <v>30846.272581000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.568409</v>
+        <v>8.5684090000000008</v>
       </c>
       <c r="AB19" s="1">
-        <v>963.452000</v>
+        <v>963.452</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.445300</v>
+        <v>-77.445300000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>30856.789253</v>
+        <v>30856.789252999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.571330</v>
+        <v>8.5713299999999997</v>
       </c>
       <c r="AG19" s="1">
-        <v>968.099000</v>
+        <v>968.09900000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.070400</v>
+        <v>-75.070400000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>30867.048007</v>
+        <v>30867.048007000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.574180</v>
+        <v>8.5741800000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.235000</v>
+        <v>975.23500000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.516700</v>
+        <v>-79.5167</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>30877.160410</v>
+        <v>30877.16041</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.576989</v>
+        <v>8.5769889999999993</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.260000</v>
+        <v>983.26</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.941900</v>
+        <v>-90.941900000000004</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>30887.931531</v>
+        <v>30887.931530999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.579981</v>
+        <v>8.5799810000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>993.070000</v>
+        <v>993.07</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.497000</v>
+        <v>-108.497</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>30898.946189</v>
+        <v>30898.946188999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.583041</v>
+        <v>8.5830409999999997</v>
       </c>
       <c r="BA19" s="1">
-        <v>1001.220000</v>
+        <v>1001.22</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.076000</v>
+        <v>-124.07599999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>30910.640863</v>
+        <v>30910.640863000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.586289</v>
+        <v>8.5862890000000007</v>
       </c>
       <c r="BF19" s="1">
-        <v>1039.440000</v>
+        <v>1039.44</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.939000</v>
+        <v>-195.93899999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>30921.961065</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.589434</v>
+        <v>8.5894340000000007</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.570000</v>
+        <v>1105.57</v>
       </c>
       <c r="BL19" s="1">
-        <v>-312.980000</v>
+        <v>-312.98</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>30932.200961</v>
+        <v>30932.200960999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.592278</v>
+        <v>8.5922780000000003</v>
       </c>
       <c r="BP19" s="1">
-        <v>1213.390000</v>
+        <v>1213.3900000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-497.816000</v>
+        <v>-497.81599999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>30942.773715</v>
+        <v>30942.773714999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.595215</v>
+        <v>8.5952149999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>1334.740000</v>
+        <v>1334.74</v>
       </c>
       <c r="BV19" s="1">
-        <v>-700.800000</v>
+        <v>-700.8</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>30953.572118</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.598214</v>
+        <v>8.5982140000000005</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="CA19" s="1">
-        <v>-916.913000</v>
+        <v>-916.91300000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>30966.202213</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.601723</v>
+        <v>8.6017229999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1829.350000</v>
+        <v>1829.35</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1430.060000</v>
+        <v>-1430.06</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>30794.428711</v>
       </c>
       <c r="B20" s="1">
-        <v>8.554008</v>
+        <v>8.5540079999999996</v>
       </c>
       <c r="C20" s="1">
-        <v>901.294000</v>
+        <v>901.29399999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-203.051000</v>
+        <v>-203.05099999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>30804.850649</v>
       </c>
       <c r="G20" s="1">
-        <v>8.556903</v>
+        <v>8.5569030000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>919.373000</v>
+        <v>919.37300000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.926000</v>
+        <v>-171.92599999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>30815.039013</v>
+        <v>30815.039013000001</v>
       </c>
       <c r="L20" s="1">
-        <v>8.559733</v>
+        <v>8.5597329999999996</v>
       </c>
       <c r="M20" s="1">
-        <v>943.261000</v>
+        <v>943.26099999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.743000</v>
+        <v>-121.74299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>30825.593342</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.562665</v>
+        <v>8.5626650000000009</v>
       </c>
       <c r="R20" s="1">
-        <v>949.705000</v>
+        <v>949.70500000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.921000</v>
+        <v>-104.92100000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>30836.066899</v>
+        <v>30836.066899000001</v>
       </c>
       <c r="V20" s="1">
-        <v>8.565574</v>
+        <v>8.5655739999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>956.412000</v>
+        <v>956.41200000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.287100</v>
+        <v>-89.287099999999995</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>30846.971410</v>
+        <v>30846.971409999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.568603</v>
+        <v>8.5686029999999995</v>
       </c>
       <c r="AB20" s="1">
-        <v>963.379000</v>
+        <v>963.37900000000002</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.479500</v>
+        <v>-77.479500000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>30857.158278</v>
+        <v>30857.158277999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.571433</v>
+        <v>8.5714330000000007</v>
       </c>
       <c r="AG20" s="1">
-        <v>968.108000</v>
+        <v>968.10799999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.085100</v>
+        <v>-75.085099999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>30867.398151</v>
+        <v>30867.398151000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.574277</v>
+        <v>8.5742770000000004</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.260000</v>
+        <v>975.26</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.516800</v>
+        <v>-79.516800000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>30877.548496</v>
+        <v>30877.548495999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.577097</v>
+        <v>8.5770970000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.291000</v>
+        <v>983.29100000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.959100</v>
+        <v>-90.959100000000007</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>30888.295595</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.580082</v>
+        <v>8.5800820000000009</v>
       </c>
       <c r="AV20" s="1">
-        <v>993.045000</v>
+        <v>993.04499999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.482000</v>
+        <v>-108.482</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>30899.610363</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.583225</v>
+        <v>8.5832250000000005</v>
       </c>
       <c r="BA20" s="1">
-        <v>1001.220000</v>
+        <v>1001.22</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.071000</v>
+        <v>-124.071</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>30911.085774</v>
+        <v>30911.085773999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.586413</v>
+        <v>8.5864130000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1039.420000</v>
+        <v>1039.42</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.944000</v>
+        <v>-195.94399999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>30922.069711</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.589464</v>
+        <v>8.5894639999999995</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.560000</v>
+        <v>1105.56</v>
       </c>
       <c r="BL20" s="1">
-        <v>-312.983000</v>
+        <v>-312.983</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>30932.609667</v>
+        <v>30932.609667000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.592392</v>
+        <v>8.5923920000000003</v>
       </c>
       <c r="BP20" s="1">
-        <v>1213.420000</v>
+        <v>1213.42</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-497.807000</v>
+        <v>-497.80700000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>30943.201236</v>
+        <v>30943.201236000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.595334</v>
+        <v>8.5953339999999994</v>
       </c>
       <c r="BU20" s="1">
-        <v>1334.740000</v>
+        <v>1334.74</v>
       </c>
       <c r="BV20" s="1">
-        <v>-700.601000</v>
+        <v>-700.601</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>30953.992229</v>
+        <v>30953.992228999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.598331</v>
+        <v>8.5983309999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1471.390000</v>
+        <v>1471.39</v>
       </c>
       <c r="CA20" s="1">
-        <v>-916.878000</v>
+        <v>-916.87800000000004</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>30966.741396</v>
+        <v>30966.741396000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.601873</v>
+        <v>8.6018729999999994</v>
       </c>
       <c r="CE20" s="1">
-        <v>1828.610000</v>
+        <v>1828.61</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1431.480000</v>
+        <v>-1431.48</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>30794.770454</v>
+        <v>30794.770454000001</v>
       </c>
       <c r="B21" s="1">
-        <v>8.554103</v>
+        <v>8.5541029999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>901.472000</v>
+        <v>901.47199999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-203.210000</v>
+        <v>-203.21</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>30805.194415</v>
+        <v>30805.194415000002</v>
       </c>
       <c r="G21" s="1">
-        <v>8.556998</v>
+        <v>8.5569980000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>919.784000</v>
+        <v>919.78399999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.705000</v>
+        <v>-171.70500000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>30815.387164</v>
       </c>
       <c r="L21" s="1">
-        <v>8.559830</v>
+        <v>8.5598299999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>943.094000</v>
+        <v>943.09400000000005</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.546000</v>
+        <v>-121.54600000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>30826.294189</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.562859</v>
+        <v>8.5628589999999996</v>
       </c>
       <c r="R21" s="1">
-        <v>949.647000</v>
+        <v>949.64700000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.016000</v>
+        <v>-105.01600000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>30836.753856</v>
+        <v>30836.753855999999</v>
       </c>
       <c r="V21" s="1">
-        <v>8.565765</v>
+        <v>8.5657650000000007</v>
       </c>
       <c r="W21" s="1">
-        <v>956.394000</v>
+        <v>956.39400000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.393000</v>
+        <v>-89.393000000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>30847.319602</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.568700</v>
+        <v>8.5686999999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>963.439000</v>
+        <v>963.43899999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.444300</v>
+        <v>-77.444299999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>30857.502995</v>
+        <v>30857.502994999999</v>
       </c>
       <c r="AF21" s="1">
         <v>8.571529</v>
       </c>
       <c r="AG21" s="1">
-        <v>968.114000</v>
+        <v>968.11400000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.084900</v>
+        <v>-75.084900000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>30867.741419</v>
+        <v>30867.741419000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.574373</v>
+        <v>8.5743729999999996</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.258000</v>
+        <v>975.25800000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.501200</v>
+        <v>-79.501199999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>30878.216889</v>
+        <v>30878.216888999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.577282</v>
+        <v>8.5772820000000003</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.281000</v>
+        <v>983.28099999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.933700</v>
+        <v>-90.933700000000002</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>30888.967179</v>
+        <v>30888.967178999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.580269</v>
+        <v>8.5802689999999995</v>
       </c>
       <c r="AV21" s="1">
-        <v>993.049000</v>
+        <v>993.04899999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.489000</v>
+        <v>-108.489</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>30900.056733</v>
+        <v>30900.056733000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.583349</v>
+        <v>8.5833490000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1001.230000</v>
+        <v>1001.23</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.071000</v>
+        <v>-124.071</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>30911.445869</v>
+        <v>30911.445868999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.586513</v>
+        <v>8.5865130000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1039.470000</v>
+        <v>1039.47</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.950000</v>
+        <v>-195.95</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>30922.428782</v>
+        <v>30922.428781999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.589564</v>
+        <v>8.5895639999999993</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.560000</v>
+        <v>1105.56</v>
       </c>
       <c r="BL21" s="1">
-        <v>-312.993000</v>
+        <v>-312.99299999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>30933.007952</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.592502</v>
+        <v>8.5925019999999996</v>
       </c>
       <c r="BP21" s="1">
-        <v>1213.370000</v>
+        <v>1213.3699999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-497.822000</v>
+        <v>-497.822</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>30943.617874</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.595449</v>
+        <v>8.5954490000000003</v>
       </c>
       <c r="BU21" s="1">
-        <v>1334.760000</v>
+        <v>1334.76</v>
       </c>
       <c r="BV21" s="1">
-        <v>-700.503000</v>
+        <v>-700.50300000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>30954.414824</v>
+        <v>30954.414823999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.598449</v>
+        <v>8.5984490000000005</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="CA21" s="1">
-        <v>-916.938000</v>
+        <v>-916.93799999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>30967.282004</v>
+        <v>30967.282004000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.602023</v>
+        <v>8.6020230000000009</v>
       </c>
       <c r="CE21" s="1">
-        <v>1830.060000</v>
+        <v>1830.06</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1430.680000</v>
+        <v>-1430.68</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>30795.114712</v>
+        <v>30795.114711999999</v>
       </c>
       <c r="B22" s="1">
-        <v>8.554199</v>
+        <v>8.5541990000000006</v>
       </c>
       <c r="C22" s="1">
-        <v>901.316000</v>
+        <v>901.31600000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-203.176000</v>
+        <v>-203.17599999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>30805.541080</v>
+        <v>30805.541079999999</v>
       </c>
       <c r="G22" s="1">
-        <v>8.557095</v>
+        <v>8.5570950000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>919.522000</v>
+        <v>919.52200000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.656000</v>
+        <v>-171.65600000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>30816.079119</v>
+        <v>30816.079119000002</v>
       </c>
       <c r="L22" s="1">
         <v>8.560022</v>
       </c>
       <c r="M22" s="1">
-        <v>943.110000</v>
+        <v>943.11</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.514000</v>
+        <v>-121.514</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>30826.641390</v>
+        <v>30826.641390000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.562956</v>
+        <v>8.5629559999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>949.678000</v>
+        <v>949.678</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.006000</v>
+        <v>-105.006</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>30837.096560</v>
+        <v>30837.096560000002</v>
       </c>
       <c r="V22" s="1">
-        <v>8.565860</v>
+        <v>8.5658600000000007</v>
       </c>
       <c r="W22" s="1">
-        <v>956.363000</v>
+        <v>956.36300000000006</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.328200</v>
+        <v>-89.328199999999995</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>30847.670801</v>
@@ -5696,784 +6112,784 @@
         <v>8.568797</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.477000</v>
+        <v>963.47699999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.509100</v>
+        <v>-77.509100000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>30858.156697</v>
+        <v>30858.156696999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.571710</v>
+        <v>8.5717099999999995</v>
       </c>
       <c r="AG22" s="1">
-        <v>968.120000</v>
+        <v>968.12</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.056400</v>
+        <v>-75.056399999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>30868.397590</v>
+        <v>30868.39759</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.574555</v>
+        <v>8.5745550000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.229000</v>
+        <v>975.22900000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.545300</v>
+        <v>-79.545299999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>30878.633560</v>
+        <v>30878.633559999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>8.577398</v>
+        <v>8.5773980000000005</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.284000</v>
+        <v>983.28399999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.940200</v>
+        <v>-90.940200000000004</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>30889.426474</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.580396</v>
+        <v>8.5803960000000004</v>
       </c>
       <c r="AV22" s="1">
-        <v>993.067000</v>
+        <v>993.06700000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.495000</v>
+        <v>-108.495</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>30900.420299</v>
+        <v>30900.420299000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.583450</v>
+        <v>8.5834499999999991</v>
       </c>
       <c r="BA22" s="1">
-        <v>1001.220000</v>
+        <v>1001.22</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.076000</v>
+        <v>-124.07599999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>30911.811434</v>
+        <v>30911.811433999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.586614</v>
+        <v>8.5866140000000009</v>
       </c>
       <c r="BF22" s="1">
-        <v>1039.470000</v>
+        <v>1039.47</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.955000</v>
+        <v>-195.95500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>30922.803262</v>
+        <v>30922.803262000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.589668</v>
+        <v>8.5896679999999996</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.560000</v>
+        <v>1105.56</v>
       </c>
       <c r="BL22" s="1">
-        <v>-312.973000</v>
+        <v>-312.97300000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>30933.437024</v>
+        <v>30933.437023999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.592621</v>
+        <v>8.5926209999999994</v>
       </c>
       <c r="BP22" s="1">
-        <v>1213.400000</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-497.820000</v>
+        <v>-497.82</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>30944.044930</v>
+        <v>30944.04493</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.595568</v>
+        <v>8.5955680000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1334.850000</v>
+        <v>1334.85</v>
       </c>
       <c r="BV22" s="1">
-        <v>-700.409000</v>
+        <v>-700.40899999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>30954.840854</v>
+        <v>30954.840853999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.598567</v>
+        <v>8.5985669999999992</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1471.300000</v>
+        <v>1471.3</v>
       </c>
       <c r="CA22" s="1">
-        <v>-917.031000</v>
+        <v>-917.03099999999995</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>30967.824626</v>
+        <v>30967.824626000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.602174</v>
+        <v>8.6021739999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1828.970000</v>
+        <v>1828.97</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1430.180000</v>
+        <v>-1430.18</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>30795.794693</v>
       </c>
       <c r="B23" s="1">
-        <v>8.554387</v>
+        <v>8.5543870000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>901.359000</v>
+        <v>901.35900000000004</v>
       </c>
       <c r="D23" s="1">
-        <v>-203.308000</v>
+        <v>-203.30799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>30806.231016</v>
+        <v>30806.231016000002</v>
       </c>
       <c r="G23" s="1">
-        <v>8.557286</v>
+        <v>8.5572859999999995</v>
       </c>
       <c r="H23" s="1">
-        <v>918.831000</v>
+        <v>918.83100000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-172.187000</v>
+        <v>-172.18700000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>30816.426282</v>
       </c>
       <c r="L23" s="1">
-        <v>8.560118</v>
+        <v>8.5601179999999992</v>
       </c>
       <c r="M23" s="1">
-        <v>943.203000</v>
+        <v>943.20299999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.367000</v>
+        <v>-121.367</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>30826.992062</v>
+        <v>30826.992062000001</v>
       </c>
       <c r="Q23" s="1">
         <v>8.563053</v>
       </c>
       <c r="R23" s="1">
-        <v>949.642000</v>
+        <v>949.64200000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.021000</v>
+        <v>-105.021</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>30837.442307</v>
+        <v>30837.442307000001</v>
       </c>
       <c r="V23" s="1">
-        <v>8.565956</v>
+        <v>8.5659559999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>956.399000</v>
+        <v>956.399</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.278600</v>
+        <v>-89.278599999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>30848.334944</v>
+        <v>30848.334943999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.568982</v>
+        <v>8.5689820000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>963.403000</v>
+        <v>963.40300000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.436500</v>
+        <v>-77.436499999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>30858.532660</v>
+        <v>30858.532660000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.571815</v>
+        <v>8.5718150000000009</v>
       </c>
       <c r="AG23" s="1">
-        <v>968.117000</v>
+        <v>968.11699999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.084200</v>
+        <v>-75.084199999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>30868.777029</v>
+        <v>30868.777029000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.574660</v>
+        <v>8.5746599999999997</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.243000</v>
+        <v>975.24300000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.548200</v>
+        <v>-79.548199999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>30879.019943</v>
+        <v>30879.019942999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.577506</v>
+        <v>8.5775059999999996</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.256000</v>
+        <v>983.25599999999997</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.956100</v>
+        <v>-90.956100000000006</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>30889.788554</v>
+        <v>30889.788553999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.580497</v>
+        <v>8.5804969999999994</v>
       </c>
       <c r="AV23" s="1">
-        <v>993.053000</v>
+        <v>993.053</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.475000</v>
+        <v>-108.47499999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>30900.778942</v>
+        <v>30900.778942000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.583550</v>
+        <v>8.5835500000000007</v>
       </c>
       <c r="BA23" s="1">
-        <v>1001.220000</v>
+        <v>1001.22</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.083000</v>
+        <v>-124.083</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>30912.228060</v>
+        <v>30912.228060000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.586730</v>
+        <v>8.5867299999999993</v>
       </c>
       <c r="BF23" s="1">
-        <v>1039.460000</v>
+        <v>1039.46</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.948000</v>
+        <v>-195.94800000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>30923.221390</v>
+        <v>30923.221389999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>8.589784</v>
+        <v>8.5897839999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.580000</v>
+        <v>1105.58</v>
       </c>
       <c r="BL23" s="1">
-        <v>-312.988000</v>
+        <v>-312.988</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>30933.826849</v>
+        <v>30933.826849000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.592730</v>
+        <v>8.5927299999999995</v>
       </c>
       <c r="BP23" s="1">
-        <v>1213.380000</v>
+        <v>1213.3800000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-497.783000</v>
+        <v>-497.78300000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>30944.471491</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.595687</v>
+        <v>8.5956869999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1334.880000</v>
+        <v>1334.88</v>
       </c>
       <c r="BV23" s="1">
-        <v>-700.395000</v>
+        <v>-700.39499999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>30955.257493</v>
+        <v>30955.257493000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.598683</v>
+        <v>8.5986829999999994</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1471.430000</v>
+        <v>1471.43</v>
       </c>
       <c r="CA23" s="1">
-        <v>-916.989000</v>
+        <v>-916.98900000000003</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>30968.362785</v>
+        <v>30968.362785000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.602323</v>
+        <v>8.6023230000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1829.420000</v>
+        <v>1829.42</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1431.660000</v>
+        <v>-1431.66</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>30796.140407</v>
+        <v>30796.140406999999</v>
       </c>
       <c r="B24" s="1">
-        <v>8.554483</v>
+        <v>8.5544829999999994</v>
       </c>
       <c r="C24" s="1">
-        <v>901.317000</v>
+        <v>901.31700000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-203.331000</v>
+        <v>-203.33099999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>30806.574279</v>
       </c>
       <c r="G24" s="1">
-        <v>8.557382</v>
+        <v>8.5573820000000005</v>
       </c>
       <c r="H24" s="1">
-        <v>919.122000</v>
+        <v>919.12199999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-172.276000</v>
+        <v>-172.27600000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>30816.770344</v>
       </c>
       <c r="L24" s="1">
-        <v>8.560214</v>
+        <v>8.5602140000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>942.979000</v>
+        <v>942.97900000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.475000</v>
+        <v>-121.47499999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>30827.648763</v>
+        <v>30827.648763000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.563236</v>
+        <v>8.5632359999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>949.668000</v>
+        <v>949.66800000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.994000</v>
+        <v>-104.994</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>30838.101949</v>
       </c>
       <c r="V24" s="1">
-        <v>8.566139</v>
+        <v>8.5661389999999997</v>
       </c>
       <c r="W24" s="1">
-        <v>956.477000</v>
+        <v>956.47699999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.362000</v>
+        <v>-89.361999999999995</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>30848.714849</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.569087</v>
+        <v>8.5690869999999997</v>
       </c>
       <c r="AB24" s="1">
-        <v>963.477000</v>
+        <v>963.47699999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.531600</v>
+        <v>-77.531599999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>30858.875890</v>
+        <v>30858.875889999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.571910</v>
+        <v>8.5719100000000008</v>
       </c>
       <c r="AG24" s="1">
-        <v>968.112000</v>
+        <v>968.11199999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.105900</v>
+        <v>-75.105900000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>30869.140100</v>
+        <v>30869.140100000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.574761</v>
+        <v>8.5747610000000005</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.240000</v>
+        <v>975.24</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.549100</v>
+        <v>-79.549099999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>30879.381000</v>
+        <v>30879.381000000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.577606</v>
+        <v>8.5776059999999994</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.267000</v>
+        <v>983.26700000000005</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.967500</v>
+        <v>-90.967500000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>30890.153611</v>
+        <v>30890.153611000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.580598</v>
+        <v>8.5805980000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>993.059000</v>
+        <v>993.05899999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.510000</v>
+        <v>-108.51</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>30901.204970</v>
+        <v>30901.204969999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.583668</v>
+        <v>8.5836679999999994</v>
       </c>
       <c r="BA24" s="1">
-        <v>1001.210000</v>
+        <v>1001.21</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.067000</v>
+        <v>-124.06699999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>30912.532144</v>
+        <v>30912.532144000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.586814</v>
+        <v>8.5868140000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1039.450000</v>
+        <v>1039.45</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.929000</v>
+        <v>-195.929</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>30923.552222</v>
+        <v>30923.552221999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.589876</v>
+        <v>8.5898760000000003</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.560000</v>
+        <v>1105.56</v>
       </c>
       <c r="BL24" s="1">
-        <v>-312.969000</v>
+        <v>-312.96899999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>30934.243498</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.592845</v>
+        <v>8.5928450000000005</v>
       </c>
       <c r="BP24" s="1">
-        <v>1213.420000</v>
+        <v>1213.42</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-497.792000</v>
+        <v>-497.79199999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>30944.881713</v>
+        <v>30944.881712999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.595800</v>
+        <v>8.5958000000000006</v>
       </c>
       <c r="BU24" s="1">
-        <v>1335.040000</v>
+        <v>1335.04</v>
       </c>
       <c r="BV24" s="1">
-        <v>-700.332000</v>
+        <v>-700.33199999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>30955.713314</v>
+        <v>30955.713314000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.598809</v>
+        <v>8.5988089999999993</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1471.310000</v>
+        <v>1471.31</v>
       </c>
       <c r="CA24" s="1">
-        <v>-916.996000</v>
+        <v>-916.99599999999998</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>30968.905410</v>
+        <v>30968.905409999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.602474</v>
+        <v>8.6024740000000008</v>
       </c>
       <c r="CE24" s="1">
-        <v>1829.960000</v>
+        <v>1829.96</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1429.940000</v>
+        <v>-1429.94</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>30796.478181</v>
+        <v>30796.478180999999</v>
       </c>
       <c r="B25" s="1">
-        <v>8.554577</v>
+        <v>8.5545770000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>901.228000</v>
+        <v>901.22799999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-203.334000</v>
+        <v>-203.334</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>30806.919959</v>
+        <v>30806.919958999999</v>
       </c>
       <c r="G25" s="1">
-        <v>8.557478</v>
+        <v>8.5574779999999997</v>
       </c>
       <c r="H25" s="1">
-        <v>919.249000</v>
+        <v>919.24900000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-172.081000</v>
+        <v>-172.08099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>30817.435145</v>
+        <v>30817.435144999999</v>
       </c>
       <c r="L25" s="1">
-        <v>8.560399</v>
+        <v>8.5603990000000003</v>
       </c>
       <c r="M25" s="1">
-        <v>943.047000</v>
+        <v>943.04700000000003</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.619000</v>
+        <v>-121.619</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>30828.036141</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.563343</v>
+        <v>8.5633429999999997</v>
       </c>
       <c r="R25" s="1">
-        <v>949.686000</v>
+        <v>949.68600000000004</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.019000</v>
+        <v>-105.01900000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>30838.475439</v>
+        <v>30838.475439000002</v>
       </c>
       <c r="V25" s="1">
-        <v>8.566243</v>
+        <v>8.5662430000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>956.444000</v>
+        <v>956.44399999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.360400</v>
+        <v>-89.360399999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>30849.065551</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.569185</v>
+        <v>8.5691849999999992</v>
       </c>
       <c r="AB25" s="1">
-        <v>963.494000</v>
+        <v>963.49400000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.339000</v>
+        <v>-77.338999999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>30859.220642</v>
@@ -6482,422 +6898,423 @@
         <v>8.572006</v>
       </c>
       <c r="AG25" s="1">
-        <v>968.091000</v>
+        <v>968.09100000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.058800</v>
+        <v>-75.058800000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>30869.488788</v>
+        <v>30869.488787999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.574858</v>
+        <v>8.5748580000000008</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.250000</v>
+        <v>975.25</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.543400</v>
+        <v>-79.543400000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>30879.800120</v>
+        <v>30879.80012</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.577722</v>
+        <v>8.5777219999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.249000</v>
+        <v>983.24900000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.952300</v>
+        <v>-90.952299999999994</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>30890.882730</v>
+        <v>30890.882730000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.580801</v>
+        <v>8.5808009999999992</v>
       </c>
       <c r="AV25" s="1">
-        <v>993.041000</v>
+        <v>993.04100000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.500000</v>
+        <v>-108.5</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>30901.492186</v>
+        <v>30901.492185999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.583748</v>
+        <v>8.5837479999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1001.210000</v>
+        <v>1001.21</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.076000</v>
+        <v>-124.07599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>30912.893727</v>
+        <v>30912.893726999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.586915</v>
+        <v>8.5869149999999994</v>
       </c>
       <c r="BF25" s="1">
-        <v>1039.490000</v>
+        <v>1039.49</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.928000</v>
+        <v>-195.928</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>30923.952028</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.589987</v>
+        <v>8.5899870000000007</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.560000</v>
+        <v>1105.56</v>
       </c>
       <c r="BL25" s="1">
-        <v>-312.976000</v>
+        <v>-312.976</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>30934.643263</v>
+        <v>30934.643263000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.592956</v>
+        <v>8.5929559999999992</v>
       </c>
       <c r="BP25" s="1">
-        <v>1213.410000</v>
+        <v>1213.4100000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-497.800000</v>
+        <v>-497.8</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>30945.317664</v>
+        <v>30945.317663999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.595922</v>
+        <v>8.5959219999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1335.110000</v>
+        <v>1335.11</v>
       </c>
       <c r="BV25" s="1">
-        <v>-700.390000</v>
+        <v>-700.39</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>30956.164673</v>
+        <v>30956.164672999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.598935</v>
+        <v>8.5989350000000009</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1471.330000</v>
+        <v>1471.33</v>
       </c>
       <c r="CA25" s="1">
-        <v>-916.996000</v>
+        <v>-916.99599999999998</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>30969.443600</v>
+        <v>30969.443599999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.602623</v>
+        <v>8.6026229999999995</v>
       </c>
       <c r="CE25" s="1">
-        <v>1828.740000</v>
+        <v>1828.74</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1431.210000</v>
+        <v>-1431.21</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>30797.133893</v>
+        <v>30797.133892999998</v>
       </c>
       <c r="B26" s="1">
-        <v>8.554759</v>
+        <v>8.5547590000000007</v>
       </c>
       <c r="C26" s="1">
-        <v>901.401000</v>
+        <v>901.40099999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-203.255000</v>
+        <v>-203.255</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>30807.360903</v>
+        <v>30807.360903000001</v>
       </c>
       <c r="G26" s="1">
-        <v>8.557600</v>
+        <v>8.5576000000000008</v>
       </c>
       <c r="H26" s="1">
-        <v>918.833000</v>
+        <v>918.83299999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>-172.157000</v>
+        <v>-172.15700000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>30817.804701</v>
+        <v>30817.804701000001</v>
       </c>
       <c r="L26" s="1">
-        <v>8.560501</v>
+        <v>8.5605010000000004</v>
       </c>
       <c r="M26" s="1">
-        <v>942.872000</v>
+        <v>942.87199999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.702000</v>
+        <v>-121.702</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>30828.383338</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.563440</v>
+        <v>8.5634399999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>949.676000</v>
+        <v>949.67600000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.990000</v>
+        <v>-104.99</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>30838.824125</v>
+        <v>30838.824124999999</v>
       </c>
       <c r="V26" s="1">
-        <v>8.566340</v>
+        <v>8.5663400000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>956.500000</v>
+        <v>956.5</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.401700</v>
+        <v>-89.401700000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>30849.412255</v>
+        <v>30849.412254999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.569281</v>
+        <v>8.5692810000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>963.451000</v>
+        <v>963.45100000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.402000</v>
+        <v>-77.402000000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>30859.637249</v>
+        <v>30859.637248999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.572121</v>
+        <v>8.5721209999999992</v>
       </c>
       <c r="AG26" s="1">
-        <v>968.120000</v>
+        <v>968.12</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.086700</v>
+        <v>-75.086699999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>30869.913861</v>
+        <v>30869.913861000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.574976</v>
+        <v>8.5749759999999995</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.239000</v>
+        <v>975.23900000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.567300</v>
+        <v>-79.567300000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>30880.100696</v>
+        <v>30880.100696000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.577806</v>
+        <v>8.5778060000000007</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.276000</v>
+        <v>983.27599999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.947700</v>
+        <v>-90.947699999999998</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>30891.270105</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.580908</v>
+        <v>8.5809080000000009</v>
       </c>
       <c r="AV26" s="1">
-        <v>993.060000</v>
+        <v>993.06</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.512000</v>
+        <v>-108.512</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>30901.851755</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.583848</v>
+        <v>8.5838479999999997</v>
       </c>
       <c r="BA26" s="1">
-        <v>1001.250000</v>
+        <v>1001.25</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.073000</v>
+        <v>-124.07299999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>30913.252827</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.587015</v>
+        <v>8.5870149999999992</v>
       </c>
       <c r="BF26" s="1">
-        <v>1039.450000</v>
+        <v>1039.45</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.943000</v>
+        <v>-195.94300000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>30924.700987</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.590195</v>
+        <v>8.5901949999999996</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.580000</v>
+        <v>1105.58</v>
       </c>
       <c r="BL26" s="1">
-        <v>-312.984000</v>
+        <v>-312.98399999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>30935.069325</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.593075</v>
+        <v>8.5930750000000007</v>
       </c>
       <c r="BP26" s="1">
-        <v>1213.410000</v>
+        <v>1213.4100000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-497.801000</v>
+        <v>-497.80099999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>30945.742301</v>
+        <v>30945.742300999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.596040</v>
+        <v>8.5960400000000003</v>
       </c>
       <c r="BU26" s="1">
-        <v>1335.270000</v>
+        <v>1335.27</v>
       </c>
       <c r="BV26" s="1">
-        <v>-700.347000</v>
+        <v>-700.34699999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>30956.610607</v>
+        <v>30956.610606999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.599059</v>
+        <v>8.5990590000000005</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="CA26" s="1">
-        <v>-917.011000</v>
+        <v>-917.01099999999997</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>30969.983217</v>
+        <v>30969.983217000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.602773</v>
+        <v>8.6027729999999991</v>
       </c>
       <c r="CE26" s="1">
-        <v>1830.100000</v>
+        <v>1830.1</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1431.450000</v>
+        <v>-1431.45</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>